--- a/inflation_2012-24.xlsx
+++ b/inflation_2012-24.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RBI Official\DCA\Dashboard\Inflation-monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC068E06-D21C-4B23-9044-70A802DAF64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66790CA-93D0-43D9-85FB-3E0877F920B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3EA9A55A-B48B-4035-99BE-2980B3C8C172}"/>
   </bookViews>
@@ -658,13 +658,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79DBFB1-5D6A-4B75-89EE-EC9E4D2C9668}">
-  <dimension ref="A1:EZ29"/>
+  <dimension ref="A1:FA29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="DL2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="EL5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="EZ5" sqref="EZ5"/>
+      <selection pane="bottomRight" activeCell="FB7" sqref="FB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -672,7 +672,7 @@
     <col min="1" max="1" width="6.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:156" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:157" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1141,8 +1141,11 @@
       <c r="EZ1" s="16">
         <v>45505</v>
       </c>
+      <c r="FA1" s="16">
+        <v>45536</v>
+      </c>
     </row>
-    <row r="2" spans="1:156" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1611,8 +1614,11 @@
       <c r="EZ2" s="4">
         <v>7.3061907417735608</v>
       </c>
+      <c r="FA2" s="4">
+        <v>6.8357221609702341</v>
+      </c>
     </row>
-    <row r="3" spans="1:156" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2081,8 +2087,11 @@
       <c r="EZ3" s="4">
         <v>4.2970574497898264</v>
       </c>
+      <c r="FA3" s="4">
+        <v>2.6642168121267855</v>
+      </c>
     </row>
-    <row r="4" spans="1:156" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2549,10 +2558,13 @@
         <v>6.8169323804288098</v>
       </c>
       <c r="EZ4" s="4">
-        <v>7.1388101983002796</v>
+        <v>7.0821529745042495</v>
+      </c>
+      <c r="FA4" s="4">
+        <v>6.3087991145545139</v>
       </c>
     </row>
-    <row r="5" spans="1:156" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3019,10 +3031,13 @@
         <v>3.0470914127423825</v>
       </c>
       <c r="EZ5" s="4">
-        <v>2.9801324503311291</v>
+        <v>2.9249448123620376</v>
+      </c>
+      <c r="FA5" s="4">
+        <v>3.0303030303030303</v>
       </c>
     </row>
-    <row r="6" spans="1:156" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -3491,8 +3506,11 @@
       <c r="EZ6" s="8">
         <v>-0.85942295887047626</v>
       </c>
+      <c r="FA6" s="8">
+        <v>2.466091245376079</v>
+      </c>
     </row>
-    <row r="7" spans="1:156" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -3961,8 +3979,11 @@
       <c r="EZ7" s="4">
         <v>6.4516129032258034</v>
       </c>
+      <c r="FA7" s="4">
+        <v>7.6490438695163077</v>
+      </c>
     </row>
-    <row r="8" spans="1:156" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -4429,10 +4450,13 @@
         <v>6.8345323741007284</v>
       </c>
       <c r="EZ8" s="4">
-        <v>10.705182667799496</v>
+        <v>10.747663551401862</v>
+      </c>
+      <c r="FA8" s="4">
+        <v>35.987903225806456</v>
       </c>
     </row>
-    <row r="9" spans="1:156" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
@@ -4901,8 +4925,11 @@
       <c r="EZ9" s="8">
         <v>13.597883597883593</v>
       </c>
+      <c r="FA9" s="8">
+        <v>9.8118962887646219</v>
+      </c>
     </row>
-    <row r="10" spans="1:156" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -5371,8 +5398,11 @@
       <c r="EZ10" s="4">
         <v>4.7011952191235107</v>
       </c>
+      <c r="FA10" s="4">
+        <v>3.4591194968553389</v>
+      </c>
     </row>
-    <row r="11" spans="1:156" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -5839,10 +5869,13 @@
         <v>-1.427335640138401</v>
       </c>
       <c r="EZ11" s="4">
-        <v>-4.4025157232704402</v>
+        <v>-4.3605870020964383</v>
+      </c>
+      <c r="FA11" s="4">
+        <v>-6.1342116097159343</v>
       </c>
     </row>
-    <row r="12" spans="1:156" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -6311,8 +6344,11 @@
       <c r="EZ12" s="4">
         <v>2.3999999999999932</v>
       </c>
+      <c r="FA12" s="4">
+        <v>2.565564424173318</v>
+      </c>
     </row>
-    <row r="13" spans="1:156" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -6781,8 +6817,11 @@
       <c r="EZ13" s="4">
         <v>3.4658511722731968</v>
       </c>
+      <c r="FA13" s="4">
+        <v>3.5587188612099649</v>
+      </c>
     </row>
-    <row r="14" spans="1:156" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
@@ -7251,8 +7290,11 @@
       <c r="EZ14" s="9">
         <v>5.2987012987012934</v>
       </c>
+      <c r="FA14" s="9">
+        <v>8.3597883597883662</v>
+      </c>
     </row>
-    <row r="15" spans="1:156" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
@@ -7721,8 +7763,11 @@
       <c r="EZ15" s="8">
         <v>2.7093596059113301</v>
       </c>
+      <c r="FA15" s="8">
+        <v>2.5061425061425036</v>
+      </c>
     </row>
-    <row r="16" spans="1:156" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -8191,8 +8236,11 @@
       <c r="EZ16" s="4">
         <v>2.752779248279507</v>
       </c>
+      <c r="FA16" s="4">
+        <v>2.7997886951928064</v>
+      </c>
     </row>
-    <row r="17" spans="1:156" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -8659,10 +8707,13 @@
         <v>1.9922523519645949</v>
       </c>
       <c r="EZ17" s="4">
-        <v>2.044198895027618</v>
+        <v>2.0994475138121609</v>
+      </c>
+      <c r="FA17" s="4">
+        <v>1.984564498346193</v>
       </c>
     </row>
-    <row r="18" spans="1:156" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>0</v>
       </c>
@@ -9131,8 +9182,11 @@
       <c r="EZ18" s="8">
         <v>2.717101758124679</v>
       </c>
+      <c r="FA18" s="8">
+        <v>2.71132376395534</v>
+      </c>
     </row>
-    <row r="19" spans="1:156" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -9601,8 +9655,11 @@
       <c r="EZ19" s="8">
         <v>2.6643990929705148</v>
       </c>
+      <c r="FA19" s="8">
+        <v>2.780930760499436</v>
+      </c>
     </row>
-    <row r="20" spans="1:156" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>0</v>
       </c>
@@ -10069,10 +10126,13 @@
         <v>-5.477980665950585</v>
       </c>
       <c r="EZ20" s="9">
-        <v>-5.3083109919571072</v>
+        <v>-5.2546916890080491</v>
+      </c>
+      <c r="FA20" s="9">
+        <v>-1.3943112102621305</v>
       </c>
     </row>
-    <row r="21" spans="1:156" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -10541,8 +10601,11 @@
       <c r="EZ21" s="4">
         <v>2.4348810872027244</v>
       </c>
+      <c r="FA21" s="4">
+        <v>2.5452488687782804</v>
+      </c>
     </row>
-    <row r="22" spans="1:156" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -11011,8 +11074,11 @@
       <c r="EZ22" s="4">
         <v>4.1022908897176444</v>
       </c>
+      <c r="FA22" s="4">
+        <v>4.0892193308550127</v>
+      </c>
     </row>
-    <row r="23" spans="1:156" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -11481,8 +11547,11 @@
       <c r="EZ23" s="4">
         <v>2.7124773960216997</v>
       </c>
+      <c r="FA23" s="4">
+        <v>2.7710843373493943</v>
+      </c>
     </row>
-    <row r="24" spans="1:156" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -11949,10 +12018,13 @@
         <v>2.2028985507246444</v>
       </c>
       <c r="EZ24" s="4">
-        <v>2.313475997686524</v>
+        <v>2.3713128976286835</v>
+      </c>
+      <c r="FA24" s="4">
+        <v>2.3081361800346216</v>
       </c>
     </row>
-    <row r="25" spans="1:156" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -12419,10 +12491,13 @@
         <v>3.537866224433392</v>
       </c>
       <c r="EZ25" s="4">
-        <v>3.7424325811777721</v>
+        <v>3.8525041276829946</v>
+      </c>
+      <c r="FA25" s="4">
+        <v>3.7870472008781597</v>
       </c>
     </row>
-    <row r="26" spans="1:156" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -12889,10 +12964,13 @@
         <v>8.4415584415584366</v>
       </c>
       <c r="EZ26" s="4">
-        <v>7.9416531604538179</v>
+        <v>7.9956780118854738</v>
+      </c>
+      <c r="FA26" s="4">
+        <v>9.0026954177897505</v>
       </c>
     </row>
-    <row r="27" spans="1:156" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -13361,8 +13439,11 @@
       <c r="EZ27" s="8">
         <v>3.8895152198421679</v>
       </c>
+      <c r="FA27" s="8">
+        <v>4.049493813273334</v>
+      </c>
     </row>
-    <row r="28" spans="1:156" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>0</v>
       </c>
@@ -13831,8 +13912,11 @@
       <c r="EZ28" s="9">
         <v>3.6519871106337338</v>
       </c>
+      <c r="FA28" s="9">
+        <v>5.4861488321564336</v>
+      </c>
     </row>
-    <row r="29" spans="1:156" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>48</v>
       </c>
@@ -14299,7 +14383,10 @@
         <v>3.4228189343637827</v>
       </c>
       <c r="EZ29" s="15">
-        <v>3.2871590798340558</v>
+        <v>3.2791274134628963</v>
+      </c>
+      <c r="FA29" s="15">
+        <v>3.5522580426977304</v>
       </c>
     </row>
   </sheetData>

--- a/inflation_2012-24.xlsx
+++ b/inflation_2012-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RBI Official\DCA\Dashboard\Inflation-monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66790CA-93D0-43D9-85FB-3E0877F920B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CA2B00-A7DD-4DBA-AE8C-E2DC5C1E38D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3EA9A55A-B48B-4035-99BE-2980B3C8C172}"/>
   </bookViews>
@@ -658,13 +658,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79DBFB1-5D6A-4B75-89EE-EC9E4D2C9668}">
-  <dimension ref="A1:FA29"/>
+  <dimension ref="A1:FB29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="EL5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="EI2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="FB7" sqref="FB7"/>
+      <selection pane="bottomRight" activeCell="FG11" sqref="FG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -672,7 +672,7 @@
     <col min="1" max="1" width="6.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:157" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:158" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1144,8 +1144,11 @@
       <c r="FA1" s="16">
         <v>45536</v>
       </c>
+      <c r="FB1" s="16">
+        <v>45566</v>
+      </c>
     </row>
-    <row r="2" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1617,8 +1620,11 @@
       <c r="FA2" s="4">
         <v>6.8357221609702341</v>
       </c>
+      <c r="FB2" s="4">
+        <v>6.9436850738108191</v>
+      </c>
     </row>
-    <row r="3" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2088,10 +2094,13 @@
         <v>4.2970574497898264</v>
       </c>
       <c r="FA3" s="4">
-        <v>2.6642168121267855</v>
+        <v>2.6182820395039124</v>
+      </c>
+      <c r="FB3" s="4">
+        <v>3.1680440771349758</v>
       </c>
     </row>
-    <row r="4" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2561,10 +2570,13 @@
         <v>7.0821529745042495</v>
       </c>
       <c r="FA4" s="4">
-        <v>6.3087991145545139</v>
+        <v>6.3641394576646375</v>
+      </c>
+      <c r="FB4" s="4">
+        <v>4.8715203426124161</v>
       </c>
     </row>
-    <row r="5" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3036,8 +3048,11 @@
       <c r="FA5" s="4">
         <v>3.0303030303030303</v>
       </c>
+      <c r="FB5" s="4">
+        <v>2.9686641011544834</v>
+      </c>
     </row>
-    <row r="6" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -3507,10 +3522,13 @@
         <v>-0.85942295887047626</v>
       </c>
       <c r="FA6" s="8">
-        <v>2.466091245376079</v>
+        <v>2.5277435265104948</v>
+      </c>
+      <c r="FB6" s="8">
+        <v>9.5090118085767443</v>
       </c>
     </row>
-    <row r="7" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -3982,8 +4000,11 @@
       <c r="FA7" s="4">
         <v>7.6490438695163077</v>
       </c>
+      <c r="FB7" s="4">
+        <v>8.4310441094360655</v>
+      </c>
     </row>
-    <row r="8" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -4453,10 +4474,13 @@
         <v>10.747663551401862</v>
       </c>
       <c r="FA8" s="4">
-        <v>35.987903225806456</v>
+        <v>36.03830645161289</v>
+      </c>
+      <c r="FB8" s="4">
+        <v>42.182172430589361</v>
       </c>
     </row>
-    <row r="9" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
@@ -4928,8 +4952,11 @@
       <c r="FA9" s="8">
         <v>9.8118962887646219</v>
       </c>
+      <c r="FB9" s="8">
+        <v>7.433102081268582</v>
+      </c>
     </row>
-    <row r="10" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -5401,8 +5428,11 @@
       <c r="FA10" s="4">
         <v>3.4591194968553389</v>
       </c>
+      <c r="FB10" s="4">
+        <v>2.5660964230171159</v>
+      </c>
     </row>
-    <row r="11" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -5874,8 +5904,11 @@
       <c r="FA11" s="4">
         <v>-6.1342116097159343</v>
       </c>
+      <c r="FB11" s="4">
+        <v>-7.0118222584590368</v>
+      </c>
     </row>
-    <row r="12" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -6347,8 +6380,11 @@
       <c r="FA12" s="4">
         <v>2.565564424173318</v>
       </c>
+      <c r="FB12" s="4">
+        <v>2.7288231949971475</v>
+      </c>
     </row>
-    <row r="13" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -6820,8 +6856,11 @@
       <c r="FA13" s="4">
         <v>3.5587188612099649</v>
       </c>
+      <c r="FB13" s="4">
+        <v>3.6511156186612665</v>
+      </c>
     </row>
-    <row r="14" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
@@ -7293,8 +7332,11 @@
       <c r="FA14" s="9">
         <v>8.3597883597883662</v>
       </c>
+      <c r="FB14" s="9">
+        <v>9.6909376636982714</v>
+      </c>
     </row>
-    <row r="15" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
@@ -7766,8 +7808,11 @@
       <c r="FA15" s="8">
         <v>2.5061425061425036</v>
       </c>
+      <c r="FB15" s="8">
+        <v>2.5012260912211839</v>
+      </c>
     </row>
-    <row r="16" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -8239,8 +8284,11 @@
       <c r="FA16" s="4">
         <v>2.7997886951928064</v>
       </c>
+      <c r="FB16" s="4">
+        <v>2.7894736842105323</v>
+      </c>
     </row>
-    <row r="17" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -8712,8 +8760,11 @@
       <c r="FA17" s="4">
         <v>1.984564498346193</v>
       </c>
+      <c r="FB17" s="4">
+        <v>2.1475770925110163</v>
+      </c>
     </row>
-    <row r="18" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>0</v>
       </c>
@@ -9185,8 +9236,11 @@
       <c r="FA18" s="8">
         <v>2.71132376395534</v>
       </c>
+      <c r="FB18" s="8">
+        <v>2.7012711864406751</v>
+      </c>
     </row>
-    <row r="19" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -9656,10 +9710,13 @@
         <v>2.6643990929705148</v>
       </c>
       <c r="FA19" s="8">
-        <v>2.780930760499436</v>
+        <v>2.7241770715096547</v>
+      </c>
+      <c r="FB19" s="8">
+        <v>2.8137310073157007</v>
       </c>
     </row>
-    <row r="20" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>0</v>
       </c>
@@ -10129,10 +10186,13 @@
         <v>-5.2546916890080491</v>
       </c>
       <c r="FA20" s="9">
-        <v>-1.3943112102621305</v>
+        <v>-1.3385387618516482</v>
+      </c>
+      <c r="FB20" s="9">
+        <v>-1.6129032258064546</v>
       </c>
     </row>
-    <row r="21" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -10604,8 +10664,11 @@
       <c r="FA21" s="4">
         <v>2.5452488687782804</v>
       </c>
+      <c r="FB21" s="4">
+        <v>2.6538678712591852</v>
+      </c>
     </row>
-    <row r="22" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -11077,8 +11140,11 @@
       <c r="FA22" s="4">
         <v>4.0892193308550127</v>
       </c>
+      <c r="FB22" s="4">
+        <v>3.9640591966173364</v>
+      </c>
     </row>
-    <row r="23" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -11548,10 +11614,13 @@
         <v>2.7124773960216997</v>
       </c>
       <c r="FA23" s="4">
-        <v>2.7710843373493943</v>
+        <v>2.7108433734939759</v>
+      </c>
+      <c r="FB23" s="4">
+        <v>2.7092113184828417</v>
       </c>
     </row>
-    <row r="24" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -12021,10 +12090,13 @@
         <v>2.3713128976286835</v>
       </c>
       <c r="FA24" s="4">
-        <v>2.3081361800346216</v>
+        <v>2.3658395845354843</v>
+      </c>
+      <c r="FB24" s="4">
+        <v>2.4755325273460054</v>
       </c>
     </row>
-    <row r="25" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -12496,8 +12568,11 @@
       <c r="FA25" s="4">
         <v>3.7870472008781597</v>
       </c>
+      <c r="FB25" s="4">
+        <v>3.9517014270033028</v>
+      </c>
     </row>
-    <row r="26" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -12969,8 +13044,11 @@
       <c r="FA26" s="4">
         <v>9.0026954177897505</v>
       </c>
+      <c r="FB26" s="4">
+        <v>10.991379310344831</v>
+      </c>
     </row>
-    <row r="27" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -13442,8 +13520,11 @@
       <c r="FA27" s="8">
         <v>4.049493813273334</v>
       </c>
+      <c r="FB27" s="8">
+        <v>4.3234138124649171</v>
+      </c>
     </row>
-    <row r="28" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>0</v>
       </c>
@@ -13915,8 +13996,11 @@
       <c r="FA28" s="9">
         <v>5.4861488321564336</v>
       </c>
+      <c r="FB28" s="9">
+        <v>6.2061521856448998</v>
+      </c>
     </row>
-    <row r="29" spans="1:157" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>48</v>
       </c>
@@ -14386,7 +14470,10 @@
         <v>3.2791274134628963</v>
       </c>
       <c r="FA29" s="15">
-        <v>3.5522580426977304</v>
+        <v>3.5442261480912292</v>
+      </c>
+      <c r="FB29" s="15">
+        <v>3.7613507188700832</v>
       </c>
     </row>
   </sheetData>

--- a/inflation_2012-24.xlsx
+++ b/inflation_2012-24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RBI Official\DCA\Dashboard\Inflation-monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CA2B00-A7DD-4DBA-AE8C-E2DC5C1E38D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8CDD10-5BAE-401C-979D-CD6F60B284E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3EA9A55A-B48B-4035-99BE-2980B3C8C172}"/>
   </bookViews>
@@ -658,13 +658,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79DBFB1-5D6A-4B75-89EE-EC9E4D2C9668}">
-  <dimension ref="A1:FB29"/>
+  <dimension ref="A1:FC29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="EI2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="EH2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="FG11" sqref="FG11"/>
+      <selection pane="bottomRight" activeCell="FB29" sqref="FB29:FC29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -672,7 +672,7 @@
     <col min="1" max="1" width="6.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:158" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:159" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1147,8 +1147,11 @@
       <c r="FB1" s="16">
         <v>45566</v>
       </c>
+      <c r="FC1" s="16">
+        <v>45597</v>
+      </c>
     </row>
-    <row r="2" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1623,8 +1626,11 @@
       <c r="FB2" s="4">
         <v>6.9436850738108191</v>
       </c>
+      <c r="FC2" s="4">
+        <v>6.8797399783315365</v>
+      </c>
     </row>
-    <row r="3" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2099,8 +2105,11 @@
       <c r="FB3" s="4">
         <v>3.1680440771349758</v>
       </c>
+      <c r="FC3" s="4">
+        <v>4.6728971962616823</v>
+      </c>
     </row>
-    <row r="4" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2573,10 +2582,13 @@
         <v>6.3641394576646375</v>
       </c>
       <c r="FB4" s="4">
-        <v>4.8715203426124161</v>
+        <v>4.9250535331905718</v>
+      </c>
+      <c r="FC4" s="4">
+        <v>4.8412285268089601</v>
       </c>
     </row>
-    <row r="5" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3051,8 +3063,11 @@
       <c r="FB5" s="4">
         <v>2.9686641011544834</v>
       </c>
+      <c r="FC5" s="4">
+        <v>2.8540065861690547</v>
+      </c>
     </row>
-    <row r="6" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -3525,10 +3540,13 @@
         <v>2.5277435265104948</v>
       </c>
       <c r="FB6" s="8">
-        <v>9.5090118085767443</v>
+        <v>9.571162212554384</v>
+      </c>
+      <c r="FC6" s="8">
+        <v>13.2793017456359</v>
       </c>
     </row>
-    <row r="7" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -4003,8 +4021,11 @@
       <c r="FB7" s="4">
         <v>8.4310441094360655</v>
       </c>
+      <c r="FC7" s="4">
+        <v>7.6793721973094105</v>
+      </c>
     </row>
-    <row r="8" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -4477,10 +4498,13 @@
         <v>36.03830645161289</v>
       </c>
       <c r="FB8" s="4">
-        <v>42.182172430589361</v>
+        <v>42.230881636629313</v>
+      </c>
+      <c r="FC8" s="4">
+        <v>29.32714617169373</v>
       </c>
     </row>
-    <row r="9" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
@@ -4953,10 +4977,13 @@
         <v>9.8118962887646219</v>
       </c>
       <c r="FB9" s="8">
-        <v>7.433102081268582</v>
+        <v>7.3835480673934475</v>
+      </c>
+      <c r="FC9" s="8">
+        <v>5.4119941491955119</v>
       </c>
     </row>
-    <row r="10" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -5431,8 +5458,11 @@
       <c r="FB10" s="4">
         <v>2.5660964230171159</v>
       </c>
+      <c r="FC10" s="4">
+        <v>1.3066871637202282</v>
+      </c>
     </row>
-    <row r="11" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -5907,8 +5937,11 @@
       <c r="FB11" s="4">
         <v>-7.0118222584590368</v>
       </c>
+      <c r="FC11" s="4">
+        <v>-7.4269480519480569</v>
+      </c>
     </row>
-    <row r="12" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -6381,10 +6414,13 @@
         <v>2.565564424173318</v>
       </c>
       <c r="FB12" s="4">
-        <v>2.7288231949971475</v>
+        <v>2.6719727117680434</v>
+      </c>
+      <c r="FC12" s="4">
+        <v>2.7195467422096384</v>
       </c>
     </row>
-    <row r="13" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -6857,10 +6893,13 @@
         <v>3.5587188612099649</v>
       </c>
       <c r="FB13" s="4">
-        <v>3.6511156186612665</v>
+        <v>3.7018255578093364</v>
+      </c>
+      <c r="FC13" s="4">
+        <v>3.9493670886076004</v>
       </c>
     </row>
-    <row r="14" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
@@ -7335,8 +7374,11 @@
       <c r="FB14" s="9">
         <v>9.6909376636982714</v>
       </c>
+      <c r="FC14" s="9">
+        <v>8.2035306334371807</v>
+      </c>
     </row>
-    <row r="15" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
@@ -7811,8 +7853,11 @@
       <c r="FB15" s="8">
         <v>2.5012260912211839</v>
       </c>
+      <c r="FC15" s="8">
+        <v>2.3483365949119288</v>
+      </c>
     </row>
-    <row r="16" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -8287,8 +8332,11 @@
       <c r="FB16" s="4">
         <v>2.7894736842105323</v>
       </c>
+      <c r="FC16" s="4">
+        <v>2.8346456692913415</v>
+      </c>
     </row>
-    <row r="17" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -8763,8 +8811,11 @@
       <c r="FB17" s="4">
         <v>2.1475770925110163</v>
       </c>
+      <c r="FC17" s="4">
+        <v>2.1428571428571459</v>
+      </c>
     </row>
-    <row r="18" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>0</v>
       </c>
@@ -9239,8 +9290,11 @@
       <c r="FB18" s="8">
         <v>2.7012711864406751</v>
       </c>
+      <c r="FC18" s="8">
+        <v>2.7484143763213624</v>
+      </c>
     </row>
-    <row r="19" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -9715,8 +9769,11 @@
       <c r="FB19" s="8">
         <v>2.8137310073157007</v>
       </c>
+      <c r="FC19" s="8">
+        <v>2.8667790893760503</v>
+      </c>
     </row>
-    <row r="20" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>0</v>
       </c>
@@ -10189,10 +10246,13 @@
         <v>-1.3385387618516482</v>
       </c>
       <c r="FB20" s="9">
-        <v>-1.6129032258064546</v>
+        <v>-1.6685205784204671</v>
+      </c>
+      <c r="FC20" s="9">
+        <v>-1.8343524180100119</v>
       </c>
     </row>
-    <row r="21" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -10667,8 +10727,11 @@
       <c r="FB21" s="4">
         <v>2.6538678712591852</v>
       </c>
+      <c r="FC21" s="4">
+        <v>2.818489289740699</v>
+      </c>
     </row>
-    <row r="22" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -11143,8 +11206,11 @@
       <c r="FB22" s="4">
         <v>3.9640591966173364</v>
       </c>
+      <c r="FC22" s="4">
+        <v>4.0063257775435019</v>
+      </c>
     </row>
-    <row r="23" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -11617,10 +11683,13 @@
         <v>2.7108433734939759</v>
       </c>
       <c r="FB23" s="4">
-        <v>2.7092113184828417</v>
+        <v>2.7694160144491238</v>
+      </c>
+      <c r="FC23" s="4">
+        <v>2.6442307692307727</v>
       </c>
     </row>
-    <row r="24" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -12093,10 +12162,13 @@
         <v>2.3658395845354843</v>
       </c>
       <c r="FB24" s="4">
-        <v>2.4755325273460054</v>
+        <v>2.4179620034542415</v>
+      </c>
+      <c r="FC24" s="4">
+        <v>2.6467203682393521</v>
       </c>
     </row>
-    <row r="25" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -12569,10 +12641,13 @@
         <v>3.7870472008781597</v>
       </c>
       <c r="FB25" s="4">
-        <v>3.9517014270033028</v>
+        <v>3.8968166849615931</v>
+      </c>
+      <c r="FC25" s="4">
+        <v>3.8925438596491198</v>
       </c>
     </row>
-    <row r="26" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -13047,8 +13122,11 @@
       <c r="FB26" s="4">
         <v>10.991379310344831</v>
       </c>
+      <c r="FC26" s="4">
+        <v>10.416666666666668</v>
+      </c>
     </row>
-    <row r="27" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -13523,8 +13601,11 @@
       <c r="FB27" s="8">
         <v>4.3234138124649171</v>
       </c>
+      <c r="FC27" s="8">
+        <v>4.2553191489361675</v>
+      </c>
     </row>
-    <row r="28" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>0</v>
       </c>
@@ -13999,8 +14080,11 @@
       <c r="FB28" s="9">
         <v>6.2061521856448998</v>
       </c>
+      <c r="FC28" s="9">
+        <v>5.4750402576489474</v>
+      </c>
     </row>
-    <row r="29" spans="1:158" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>48</v>
       </c>
@@ -14473,7 +14557,10 @@
         <v>3.5442261480912292</v>
       </c>
       <c r="FB29" s="15">
-        <v>3.7613507188700832</v>
+        <v>3.7693549372336066</v>
+      </c>
+      <c r="FC29" s="15">
+        <v>3.7117969176061103</v>
       </c>
     </row>
   </sheetData>

--- a/inflation_2012-24.xlsx
+++ b/inflation_2012-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RBI Official\DCA\Dashboard\Inflation-monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8CDD10-5BAE-401C-979D-CD6F60B284E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F828F194-8C32-4108-BAC0-7FE2A354D778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3EA9A55A-B48B-4035-99BE-2980B3C8C172}"/>
   </bookViews>
@@ -658,13 +658,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79DBFB1-5D6A-4B75-89EE-EC9E4D2C9668}">
-  <dimension ref="A1:FC29"/>
+  <dimension ref="A1:FD29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="EH2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="EO2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="FB29" sqref="FB29:FC29"/>
+      <selection pane="bottomRight" activeCell="FF20" sqref="FF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -672,7 +672,7 @@
     <col min="1" max="1" width="6.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:160" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1150,8 +1150,11 @@
       <c r="FC1" s="16">
         <v>45597</v>
       </c>
+      <c r="FD1" s="16">
+        <v>45627</v>
+      </c>
     </row>
-    <row r="2" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1629,8 +1632,11 @@
       <c r="FC2" s="4">
         <v>6.8797399783315365</v>
       </c>
+      <c r="FD2" s="4">
+        <v>6.5053763440860184</v>
+      </c>
     </row>
-    <row r="3" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2108,8 +2114,11 @@
       <c r="FC3" s="4">
         <v>4.6728971962616823</v>
       </c>
+      <c r="FD3" s="4">
+        <v>5.3005205868433451</v>
+      </c>
     </row>
-    <row r="4" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2587,8 +2596,11 @@
       <c r="FC4" s="4">
         <v>4.8412285268089601</v>
       </c>
+      <c r="FD4" s="4">
+        <v>6.8513853904282094</v>
+      </c>
     </row>
-    <row r="5" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3066,8 +3078,11 @@
       <c r="FC5" s="4">
         <v>2.8540065861690547</v>
       </c>
+      <c r="FD5" s="4">
+        <v>2.7960526315789442</v>
+      </c>
     </row>
-    <row r="6" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -3545,8 +3560,11 @@
       <c r="FC6" s="8">
         <v>13.2793017456359</v>
       </c>
+      <c r="FD6" s="8">
+        <v>14.597629444791002</v>
+      </c>
     </row>
-    <row r="7" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -4024,8 +4042,11 @@
       <c r="FC7" s="4">
         <v>7.6793721973094105</v>
       </c>
+      <c r="FD7" s="4">
+        <v>8.490028490028493</v>
+      </c>
     </row>
-    <row r="8" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -4501,10 +4522,13 @@
         <v>42.230881636629313</v>
       </c>
       <c r="FC8" s="4">
-        <v>29.32714617169373</v>
+        <v>29.373549883990723</v>
+      </c>
+      <c r="FD8" s="4">
+        <v>26.555609995100447</v>
       </c>
     </row>
-    <row r="9" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
@@ -4982,8 +5006,11 @@
       <c r="FC9" s="8">
         <v>5.4119941491955119</v>
       </c>
+      <c r="FD9" s="8">
+        <v>3.8312318137730386</v>
+      </c>
     </row>
-    <row r="10" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -5461,8 +5488,11 @@
       <c r="FC10" s="4">
         <v>1.3066871637202282</v>
       </c>
+      <c r="FD10" s="4">
+        <v>0.30627871362940712</v>
+      </c>
     </row>
-    <row r="11" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -5940,8 +5970,11 @@
       <c r="FC11" s="4">
         <v>-7.4269480519480569</v>
       </c>
+      <c r="FD11" s="4">
+        <v>-7.4104234527687245</v>
+      </c>
     </row>
-    <row r="12" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -6419,8 +6452,11 @@
       <c r="FC12" s="4">
         <v>2.7195467422096384</v>
       </c>
+      <c r="FD12" s="4">
+        <v>3.0560271646859118</v>
+      </c>
     </row>
-    <row r="13" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -6898,8 +6934,11 @@
       <c r="FC13" s="4">
         <v>3.9493670886076004</v>
       </c>
+      <c r="FD13" s="4">
+        <v>3.987884906612825</v>
+      </c>
     </row>
-    <row r="14" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
@@ -7377,8 +7416,11 @@
       <c r="FC14" s="9">
         <v>8.2035306334371807</v>
       </c>
+      <c r="FD14" s="9">
+        <v>7.6882845188284614</v>
+      </c>
     </row>
-    <row r="15" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
@@ -7856,8 +7898,11 @@
       <c r="FC15" s="8">
         <v>2.3483365949119288</v>
       </c>
+      <c r="FD15" s="8">
+        <v>2.4938875305623442</v>
+      </c>
     </row>
-    <row r="16" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -8333,10 +8378,13 @@
         <v>2.7894736842105323</v>
       </c>
       <c r="FC16" s="4">
-        <v>2.8346456692913415</v>
+        <v>2.7821522309711346</v>
+      </c>
+      <c r="FD16" s="4">
+        <v>2.7763226820324687</v>
       </c>
     </row>
-    <row r="17" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -8812,10 +8860,13 @@
         <v>2.1475770925110163</v>
       </c>
       <c r="FC17" s="4">
-        <v>2.1428571428571459</v>
+        <v>2.197802197802198</v>
+      </c>
+      <c r="FD17" s="4">
+        <v>2.0285087719298183</v>
       </c>
     </row>
-    <row r="18" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>0</v>
       </c>
@@ -9293,8 +9344,11 @@
       <c r="FC18" s="8">
         <v>2.7484143763213624</v>
       </c>
+      <c r="FD18" s="8">
+        <v>2.7426160337552834</v>
+      </c>
     </row>
-    <row r="19" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -9772,8 +9826,11 @@
       <c r="FC19" s="8">
         <v>2.8667790893760503</v>
       </c>
+      <c r="FD19" s="8">
+        <v>2.7133973996608156</v>
+      </c>
     </row>
-    <row r="20" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>0</v>
       </c>
@@ -10251,8 +10308,11 @@
       <c r="FC20" s="9">
         <v>-1.8343524180100119</v>
       </c>
+      <c r="FD20" s="9">
+        <v>-1.3873473917869035</v>
+      </c>
     </row>
-    <row r="21" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -10730,8 +10790,11 @@
       <c r="FC21" s="4">
         <v>2.818489289740699</v>
       </c>
+      <c r="FD21" s="4">
+        <v>2.7543563799887609</v>
+      </c>
     </row>
-    <row r="22" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -11209,8 +11272,11 @@
       <c r="FC22" s="4">
         <v>4.0063257775435019</v>
       </c>
+      <c r="FD22" s="4">
+        <v>4.0462427745664682</v>
+      </c>
     </row>
-    <row r="23" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -11686,10 +11752,13 @@
         <v>2.7694160144491238</v>
       </c>
       <c r="FC23" s="4">
-        <v>2.6442307692307727</v>
+        <v>2.7043269230769229</v>
+      </c>
+      <c r="FD23" s="4">
+        <v>2.6410564225690312</v>
       </c>
     </row>
-    <row r="24" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -12167,8 +12236,11 @@
       <c r="FC24" s="4">
         <v>2.6467203682393521</v>
       </c>
+      <c r="FD24" s="4">
+        <v>2.6995979322228703</v>
+      </c>
     </row>
-    <row r="25" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -12646,8 +12718,11 @@
       <c r="FC25" s="4">
         <v>3.8925438596491198</v>
       </c>
+      <c r="FD25" s="4">
+        <v>3.8904109589041065</v>
+      </c>
     </row>
-    <row r="26" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -13125,8 +13200,11 @@
       <c r="FC26" s="4">
         <v>10.416666666666668</v>
       </c>
+      <c r="FD26" s="4">
+        <v>9.7030752916224863</v>
+      </c>
     </row>
-    <row r="27" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -13604,8 +13682,11 @@
       <c r="FC27" s="8">
         <v>4.2553191489361675</v>
       </c>
+      <c r="FD27" s="8">
+        <v>4.1899441340782122</v>
+      </c>
     </row>
-    <row r="28" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>0</v>
       </c>
@@ -14083,8 +14164,11 @@
       <c r="FC28" s="9">
         <v>5.4750402576489474</v>
       </c>
+      <c r="FD28" s="9">
+        <v>5.2234787291330198</v>
+      </c>
     </row>
-    <row r="29" spans="1:159" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>48</v>
       </c>
@@ -14561,6 +14645,9 @@
       </c>
       <c r="FC29" s="15">
         <v>3.7117969176061103</v>
+      </c>
+      <c r="FD29" s="15">
+        <v>3.6522114599136022</v>
       </c>
     </row>
   </sheetData>

--- a/inflation_2012-24.xlsx
+++ b/inflation_2012-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RBI Official\DCA\Dashboard\Inflation-monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F828F194-8C32-4108-BAC0-7FE2A354D778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFDF9B3-B5F8-4058-ACA3-8E95D388FACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3EA9A55A-B48B-4035-99BE-2980B3C8C172}"/>
   </bookViews>
@@ -658,13 +658,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79DBFB1-5D6A-4B75-89EE-EC9E4D2C9668}">
-  <dimension ref="A1:FD29"/>
+  <dimension ref="A1:FE29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="EO2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="EN2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="FF20" sqref="FF20"/>
+      <selection pane="bottomRight" activeCell="FI21" sqref="FI21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -672,7 +672,7 @@
     <col min="1" max="1" width="6.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:160" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:161" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1153,8 +1153,11 @@
       <c r="FD1" s="16">
         <v>45627</v>
       </c>
+      <c r="FE1" s="16">
+        <v>45658</v>
+      </c>
     </row>
-    <row r="2" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1635,8 +1638,11 @@
       <c r="FD2" s="4">
         <v>6.5053763440860184</v>
       </c>
+      <c r="FE2" s="4">
+        <v>6.243329775880464</v>
+      </c>
     </row>
-    <row r="3" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2117,8 +2123,11 @@
       <c r="FD3" s="4">
         <v>5.3005205868433451</v>
       </c>
+      <c r="FE3" s="4">
+        <v>5.2532833020637977</v>
+      </c>
     </row>
-    <row r="4" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2599,8 +2608,11 @@
       <c r="FD4" s="4">
         <v>6.8513853904282094</v>
       </c>
+      <c r="FE4" s="4">
+        <v>1.2664393570384773</v>
+      </c>
     </row>
-    <row r="5" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3081,8 +3093,11 @@
       <c r="FD5" s="4">
         <v>2.7960526315789442</v>
       </c>
+      <c r="FE5" s="4">
+        <v>2.8461959496442351</v>
+      </c>
     </row>
-    <row r="6" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -3563,8 +3578,11 @@
       <c r="FD6" s="8">
         <v>14.597629444791002</v>
       </c>
+      <c r="FE6" s="8">
+        <v>15.640703517587944</v>
+      </c>
     </row>
-    <row r="7" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -4043,10 +4061,13 @@
         <v>7.6793721973094105</v>
       </c>
       <c r="FD7" s="4">
-        <v>8.490028490028493</v>
+        <v>8.6039886039886007</v>
+      </c>
+      <c r="FE7" s="4">
+        <v>12.216404886561955</v>
       </c>
     </row>
-    <row r="8" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -4527,8 +4548,11 @@
       <c r="FD8" s="4">
         <v>26.555609995100447</v>
       </c>
+      <c r="FE8" s="4">
+        <v>11.349693251533752</v>
+      </c>
     </row>
-    <row r="9" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
@@ -5009,8 +5033,11 @@
       <c r="FD9" s="8">
         <v>3.8312318137730386</v>
       </c>
+      <c r="FE9" s="8">
+        <v>2.5942241801272554</v>
+      </c>
     </row>
-    <row r="10" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -5489,10 +5516,13 @@
         <v>1.3066871637202282</v>
       </c>
       <c r="FD10" s="4">
-        <v>0.30627871362940712</v>
+        <v>0.22970903522206076</v>
+      </c>
+      <c r="FE10" s="4">
+        <v>0.3074558032282903</v>
       </c>
     </row>
-    <row r="11" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -5973,8 +6003,11 @@
       <c r="FD11" s="4">
         <v>-7.4104234527687245</v>
       </c>
+      <c r="FE11" s="4">
+        <v>-6.8481848184818448</v>
+      </c>
     </row>
-    <row r="12" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -6453,10 +6486,13 @@
         <v>2.7195467422096384</v>
       </c>
       <c r="FD12" s="4">
-        <v>3.0560271646859118</v>
+        <v>2.9994340690435837</v>
+      </c>
+      <c r="FE12" s="4">
+        <v>3.3879164313946921</v>
       </c>
     </row>
-    <row r="13" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -6935,10 +6971,13 @@
         <v>3.9493670886076004</v>
       </c>
       <c r="FD13" s="4">
-        <v>3.987884906612825</v>
+        <v>4.0383644623927308</v>
+      </c>
+      <c r="FE13" s="4">
+        <v>4.0744466800804799</v>
       </c>
     </row>
-    <row r="14" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
@@ -7419,8 +7458,11 @@
       <c r="FD14" s="9">
         <v>7.6882845188284614</v>
       </c>
+      <c r="FE14" s="9">
+        <v>5.6812204103103694</v>
+      </c>
     </row>
-    <row r="15" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
@@ -7901,8 +7943,11 @@
       <c r="FD15" s="8">
         <v>2.4938875305623442</v>
       </c>
+      <c r="FE15" s="8">
+        <v>2.296042989741093</v>
+      </c>
     </row>
-    <row r="16" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -8381,10 +8426,13 @@
         <v>2.7821522309711346</v>
       </c>
       <c r="FD16" s="4">
-        <v>2.7763226820324687</v>
+        <v>2.8287061288632822</v>
+      </c>
+      <c r="FE16" s="4">
+        <v>2.7182435964453679</v>
       </c>
     </row>
-    <row r="17" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -8863,10 +8911,13 @@
         <v>2.197802197802198</v>
       </c>
       <c r="FD17" s="4">
-        <v>2.0285087719298183</v>
+        <v>2.0833333333333237</v>
+      </c>
+      <c r="FE17" s="4">
+        <v>2.0799124247400171</v>
       </c>
     </row>
-    <row r="18" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>0</v>
       </c>
@@ -9347,8 +9398,11 @@
       <c r="FD18" s="8">
         <v>2.7426160337552834</v>
       </c>
+      <c r="FE18" s="8">
+        <v>2.6842105263157867</v>
+      </c>
     </row>
-    <row r="19" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -9829,8 +9883,11 @@
       <c r="FD19" s="8">
         <v>2.7133973996608156</v>
       </c>
+      <c r="FE19" s="8">
+        <v>2.7590090090090125</v>
+      </c>
     </row>
-    <row r="20" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>0</v>
       </c>
@@ -10309,10 +10366,13 @@
         <v>-1.8343524180100119</v>
       </c>
       <c r="FD20" s="9">
-        <v>-1.3873473917869035</v>
+        <v>-1.3318534961154147</v>
+      </c>
+      <c r="FE20" s="9">
+        <v>-1.3819789939192924</v>
       </c>
     </row>
-    <row r="21" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -10791,10 +10851,13 @@
         <v>2.818489289740699</v>
       </c>
       <c r="FD21" s="4">
-        <v>2.7543563799887609</v>
+        <v>2.8105677346824058</v>
+      </c>
+      <c r="FE21" s="4">
+        <v>2.8619528619528749</v>
       </c>
     </row>
-    <row r="22" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -11275,8 +11338,11 @@
       <c r="FD22" s="4">
         <v>4.0462427745664682</v>
       </c>
+      <c r="FE22" s="4">
+        <v>3.974895397489552</v>
+      </c>
     </row>
-    <row r="23" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -11757,8 +11823,11 @@
       <c r="FD23" s="4">
         <v>2.6410564225690312</v>
       </c>
+      <c r="FE23" s="4">
+        <v>2.7577937649880058</v>
+      </c>
     </row>
-    <row r="24" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -12239,8 +12308,11 @@
       <c r="FD24" s="4">
         <v>2.6995979322228703</v>
       </c>
+      <c r="FE24" s="4">
+        <v>2.6376146788990793</v>
+      </c>
     </row>
-    <row r="25" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -12719,10 +12791,13 @@
         <v>3.8925438596491198</v>
       </c>
       <c r="FD25" s="4">
-        <v>3.8904109589041065</v>
+        <v>3.9452054794520484</v>
+      </c>
+      <c r="FE25" s="4">
+        <v>3.8272279934390379</v>
       </c>
     </row>
-    <row r="26" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -13201,10 +13276,13 @@
         <v>10.416666666666668</v>
       </c>
       <c r="FD26" s="4">
-        <v>9.7030752916224863</v>
+        <v>9.7560975609756131</v>
+      </c>
+      <c r="FE26" s="4">
+        <v>10.576414595452142</v>
       </c>
     </row>
-    <row r="27" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -13685,8 +13763,11 @@
       <c r="FD27" s="8">
         <v>4.1899441340782122</v>
       </c>
+      <c r="FE27" s="8">
+        <v>4.3478260869565117</v>
+      </c>
     </row>
-    <row r="28" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>0</v>
       </c>
@@ -14167,8 +14248,11 @@
       <c r="FD28" s="9">
         <v>5.2234787291330198</v>
       </c>
+      <c r="FE28" s="9">
+        <v>4.3126684636118604</v>
+      </c>
     </row>
-    <row r="29" spans="1:160" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>48</v>
       </c>
@@ -14647,7 +14731,10 @@
         <v>3.7117969176061103</v>
       </c>
       <c r="FD29" s="15">
-        <v>3.6522114599136022</v>
+        <v>3.6442291982728143</v>
+      </c>
+      <c r="FE29" s="15">
+        <v>3.7443258358855038</v>
       </c>
     </row>
   </sheetData>

--- a/inflation_2012-24.xlsx
+++ b/inflation_2012-24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RBI Official\DCA\Dashboard\Inflation-monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFDF9B3-B5F8-4058-ACA3-8E95D388FACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE27135-E381-44F3-9B6E-C494A0B79D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3EA9A55A-B48B-4035-99BE-2980B3C8C172}"/>
   </bookViews>
@@ -658,13 +658,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79DBFB1-5D6A-4B75-89EE-EC9E4D2C9668}">
-  <dimension ref="A1:FE29"/>
+  <dimension ref="A1:FG29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="EN2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="EM2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="FI21" sqref="FI21"/>
+      <selection pane="bottomRight" activeCell="FJ24" sqref="FJ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -672,7 +672,7 @@
     <col min="1" max="1" width="6.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:161" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:163" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1156,8 +1156,14 @@
       <c r="FE1" s="16">
         <v>45658</v>
       </c>
+      <c r="FF1" s="16">
+        <v>45689</v>
+      </c>
+      <c r="FG1" s="16">
+        <v>45717</v>
+      </c>
     </row>
-    <row r="2" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1641,8 +1647,14 @@
       <c r="FE2" s="4">
         <v>6.243329775880464</v>
       </c>
+      <c r="FF2" s="4">
+        <v>6.1007957559681696</v>
+      </c>
+      <c r="FG2" s="4">
+        <v>5.9259259259259203</v>
+      </c>
     </row>
-    <row r="3" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2126,8 +2138,14 @@
       <c r="FE3" s="4">
         <v>5.2532833020637977</v>
       </c>
+      <c r="FF3" s="4">
+        <v>2.1100917431192636</v>
+      </c>
+      <c r="FG3" s="4">
+        <v>0.31674208144795862</v>
+      </c>
     </row>
-    <row r="4" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2611,8 +2629,14 @@
       <c r="FE4" s="4">
         <v>1.2664393570384773</v>
       </c>
+      <c r="FF4" s="4">
+        <v>-2.9571217348447512</v>
+      </c>
+      <c r="FG4" s="4">
+        <v>-3.1557165028453302</v>
+      </c>
     </row>
-    <row r="5" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3096,8 +3120,14 @@
       <c r="FE5" s="4">
         <v>2.8461959496442351</v>
       </c>
+      <c r="FF5" s="4">
+        <v>2.677595628415304</v>
+      </c>
+      <c r="FG5" s="4">
+        <v>2.5641025641025577</v>
+      </c>
     </row>
-    <row r="6" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -3581,8 +3611,14 @@
       <c r="FE6" s="8">
         <v>15.640703517587944</v>
       </c>
+      <c r="FF6" s="8">
+        <v>16.361339229311419</v>
+      </c>
+      <c r="FG6" s="8">
+        <v>17.06700379266751</v>
+      </c>
     </row>
-    <row r="7" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -4064,10 +4100,16 @@
         <v>8.6039886039886007</v>
       </c>
       <c r="FE7" s="4">
-        <v>12.216404886561955</v>
+        <v>12.158231529959282</v>
+      </c>
+      <c r="FF7" s="4">
+        <v>14.819136522753794</v>
+      </c>
+      <c r="FG7" s="4">
+        <v>16.265750286368846</v>
       </c>
     </row>
-    <row r="8" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -4551,8 +4593,14 @@
       <c r="FE8" s="4">
         <v>11.349693251533752</v>
       </c>
+      <c r="FF8" s="4">
+        <v>-1.1253196930946234</v>
+      </c>
+      <c r="FG8" s="4">
+        <v>-7.0372259051504251</v>
+      </c>
     </row>
-    <row r="9" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
@@ -5034,10 +5082,16 @@
         <v>3.8312318137730386</v>
       </c>
       <c r="FE9" s="8">
-        <v>2.5942241801272554</v>
+        <v>2.5452765540871209</v>
+      </c>
+      <c r="FF9" s="8">
+        <v>-0.34550839091805957</v>
+      </c>
+      <c r="FG9" s="8">
+        <v>-2.7295285359801489</v>
       </c>
     </row>
-    <row r="10" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -5521,8 +5575,14 @@
       <c r="FE10" s="4">
         <v>0.3074558032282903</v>
       </c>
+      <c r="FF10" s="4">
+        <v>2.1638330757341442</v>
+      </c>
+      <c r="FG10" s="4">
+        <v>3.8850038850038855</v>
+      </c>
     </row>
-    <row r="11" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -6006,8 +6066,14 @@
       <c r="FE11" s="4">
         <v>-6.8481848184818448</v>
       </c>
+      <c r="FF11" s="4">
+        <v>-5.8452481076534921</v>
+      </c>
+      <c r="FG11" s="4">
+        <v>-4.9229452054794525</v>
+      </c>
     </row>
-    <row r="12" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -6491,8 +6557,14 @@
       <c r="FE12" s="4">
         <v>3.3879164313946921</v>
       </c>
+      <c r="FF12" s="4">
+        <v>3.7267080745341583</v>
+      </c>
+      <c r="FG12" s="4">
+        <v>4.0067720090293584</v>
+      </c>
     </row>
-    <row r="13" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -6976,8 +7048,14 @@
       <c r="FE13" s="4">
         <v>4.0744466800804799</v>
       </c>
+      <c r="FF13" s="4">
+        <v>4.2126379137412258</v>
+      </c>
+      <c r="FG13" s="4">
+        <v>4.3021510755377665</v>
+      </c>
     </row>
-    <row r="14" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
@@ -7461,8 +7539,14 @@
       <c r="FE14" s="9">
         <v>5.6812204103103694</v>
       </c>
+      <c r="FF14" s="9">
+        <v>3.8360483447188556</v>
+      </c>
+      <c r="FG14" s="9">
+        <v>2.8841111693759833</v>
+      </c>
     </row>
-    <row r="15" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
@@ -7946,8 +8030,14 @@
       <c r="FE15" s="8">
         <v>2.296042989741093</v>
       </c>
+      <c r="FF15" s="8">
+        <v>2.4366471734892792</v>
+      </c>
+      <c r="FG15" s="8">
+        <v>2.4793388429752179</v>
+      </c>
     </row>
-    <row r="16" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -8431,8 +8521,14 @@
       <c r="FE16" s="4">
         <v>2.7182435964453679</v>
       </c>
+      <c r="FF16" s="4">
+        <v>2.7676240208877343</v>
+      </c>
+      <c r="FG16" s="4">
+        <v>2.7097446586763878</v>
+      </c>
     </row>
-    <row r="17" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -8916,8 +9012,14 @@
       <c r="FE17" s="4">
         <v>2.0799124247400171</v>
       </c>
+      <c r="FF17" s="4">
+        <v>2.0218579234972616</v>
+      </c>
+      <c r="FG17" s="4">
+        <v>2.0185488270594591</v>
+      </c>
     </row>
-    <row r="18" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>0</v>
       </c>
@@ -9401,8 +9503,14 @@
       <c r="FE18" s="8">
         <v>2.6842105263157867</v>
       </c>
+      <c r="FF18" s="8">
+        <v>2.6799789805570122</v>
+      </c>
+      <c r="FG18" s="8">
+        <v>2.6232948583420774</v>
+      </c>
     </row>
-    <row r="19" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -9884,10 +9992,16 @@
         <v>2.7133973996608156</v>
       </c>
       <c r="FE19" s="8">
-        <v>2.7590090090090125</v>
+        <v>2.8153153153153152</v>
+      </c>
+      <c r="FF19" s="8">
+        <v>2.9131652661064362</v>
+      </c>
+      <c r="FG19" s="8">
+        <v>3.0303030303030338</v>
       </c>
     </row>
-    <row r="20" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>0</v>
       </c>
@@ -10369,10 +10483,16 @@
         <v>-1.3318534961154147</v>
       </c>
       <c r="FE20" s="9">
-        <v>-1.3819789939192924</v>
+        <v>-1.4925373134328452</v>
+      </c>
+      <c r="FF20" s="9">
+        <v>-1.3281682346430421</v>
+      </c>
+      <c r="FG20" s="9">
+        <v>1.4789533560864587</v>
       </c>
     </row>
-    <row r="21" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -10856,8 +10976,14 @@
       <c r="FE21" s="4">
         <v>2.8619528619528749</v>
       </c>
+      <c r="FF21" s="4">
+        <v>2.7995520716685331</v>
+      </c>
+      <c r="FG21" s="4">
+        <v>2.6830631637786375</v>
+      </c>
     </row>
-    <row r="22" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -11341,8 +11467,14 @@
       <c r="FE22" s="4">
         <v>3.974895397489552</v>
       </c>
+      <c r="FF22" s="4">
+        <v>4.121022430881589</v>
+      </c>
+      <c r="FG22" s="4">
+        <v>4.264170566822667</v>
+      </c>
     </row>
-    <row r="23" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -11826,8 +11958,14 @@
       <c r="FE23" s="4">
         <v>2.7577937649880058</v>
       </c>
+      <c r="FF23" s="4">
+        <v>2.9341317365269495</v>
+      </c>
+      <c r="FG23" s="4">
+        <v>3.2993401319736058</v>
+      </c>
     </row>
-    <row r="24" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -12309,10 +12447,16 @@
         <v>2.6995979322228703</v>
       </c>
       <c r="FE24" s="4">
-        <v>2.6376146788990793</v>
+        <v>2.6949541284403606</v>
+      </c>
+      <c r="FF24" s="4">
+        <v>2.6918671248568256</v>
+      </c>
+      <c r="FG24" s="4">
+        <v>2.3999999999999932</v>
       </c>
     </row>
-    <row r="25" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -12796,8 +12940,14 @@
       <c r="FE25" s="4">
         <v>3.8272279934390379</v>
       </c>
+      <c r="FF25" s="4">
+        <v>3.8251366120218582</v>
+      </c>
+      <c r="FG25" s="4">
+        <v>3.9847161572052467</v>
+      </c>
     </row>
-    <row r="26" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -13279,10 +13429,16 @@
         <v>9.7560975609756131</v>
       </c>
       <c r="FE26" s="4">
-        <v>10.576414595452142</v>
+        <v>10.629296668429401</v>
+      </c>
+      <c r="FF26" s="4">
+        <v>13.629160063391431</v>
+      </c>
+      <c r="FG26" s="4">
+        <v>13.496612819176656</v>
       </c>
     </row>
-    <row r="27" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -13766,8 +13922,14 @@
       <c r="FE27" s="8">
         <v>4.3478260869565117</v>
       </c>
+      <c r="FF27" s="8">
+        <v>4.8387096774193488</v>
+      </c>
+      <c r="FG27" s="8">
+        <v>4.9944506104328523</v>
+      </c>
     </row>
-    <row r="28" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>0</v>
       </c>
@@ -14249,10 +14411,16 @@
         <v>5.2234787291330198</v>
       </c>
       <c r="FE28" s="9">
-        <v>4.3126684636118604</v>
+        <v>4.2587601078167152</v>
+      </c>
+      <c r="FF28" s="9">
+        <v>3.6060279870828786</v>
+      </c>
+      <c r="FG28" s="9">
+        <v>3.3369214208826632</v>
       </c>
     </row>
-    <row r="29" spans="1:161" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>48</v>
       </c>
@@ -14734,7 +14902,13 @@
         <v>3.6442291982728143</v>
       </c>
       <c r="FE29" s="15">
-        <v>3.7443258358855038</v>
+        <v>3.6438913567008466</v>
+      </c>
+      <c r="FF29" s="15">
+        <v>4.0808165021712144</v>
+      </c>
+      <c r="FG29" s="15">
+        <v>4.0545058599220907</v>
       </c>
     </row>
   </sheetData>

--- a/inflation_2012-24.xlsx
+++ b/inflation_2012-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RBI Official\DCA\Dashboard\Inflation-monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE27135-E381-44F3-9B6E-C494A0B79D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496C877A-B260-4BEA-AA8F-F38E622ECE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3EA9A55A-B48B-4035-99BE-2980B3C8C172}"/>
+    <workbookView xWindow="200" yWindow="70" windowWidth="19180" windowHeight="11260" xr2:uid="{3EA9A55A-B48B-4035-99BE-2980B3C8C172}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -658,13 +658,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79DBFB1-5D6A-4B75-89EE-EC9E4D2C9668}">
-  <dimension ref="A1:FG29"/>
+  <dimension ref="A1:FH29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="EM2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="EL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="FJ24" sqref="FJ24"/>
+      <selection pane="bottomRight" activeCell="FH2" sqref="FH2:FH29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -672,7 +672,7 @@
     <col min="1" max="1" width="6.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:163" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:164" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1162,8 +1162,11 @@
       <c r="FG1" s="16">
         <v>45717</v>
       </c>
+      <c r="FH1" s="16">
+        <v>45748</v>
+      </c>
     </row>
-    <row r="2" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1653,8 +1656,11 @@
       <c r="FG2" s="4">
         <v>5.9259259259259203</v>
       </c>
+      <c r="FH2" s="4">
+        <v>5.3495762711864376</v>
+      </c>
     </row>
-    <row r="3" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2144,8 +2150,11 @@
       <c r="FG3" s="4">
         <v>0.31674208144795862</v>
       </c>
+      <c r="FH3" s="4">
+        <v>-0.35320088300221253</v>
+      </c>
     </row>
-    <row r="4" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2633,10 +2642,13 @@
         <v>-2.9571217348447512</v>
       </c>
       <c r="FG4" s="4">
-        <v>-3.1557165028453302</v>
+        <v>-3.1039834454216244</v>
+      </c>
+      <c r="FH4" s="4">
+        <v>0.82553659878921293</v>
       </c>
     </row>
-    <row r="5" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3124,10 +3136,13 @@
         <v>2.677595628415304</v>
       </c>
       <c r="FG5" s="4">
-        <v>2.5641025641025577</v>
+        <v>2.6186579378068644</v>
+      </c>
+      <c r="FH5" s="4">
+        <v>2.7218290691344587</v>
       </c>
     </row>
-    <row r="6" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -3617,8 +3632,11 @@
       <c r="FG6" s="8">
         <v>17.06700379266751</v>
       </c>
+      <c r="FH6" s="8">
+        <v>17.424242424242419</v>
+      </c>
     </row>
-    <row r="7" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -4108,8 +4126,11 @@
       <c r="FG7" s="4">
         <v>16.265750286368846</v>
       </c>
+      <c r="FH7" s="4">
+        <v>13.800539083557947</v>
+      </c>
     </row>
-    <row r="8" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -4599,8 +4620,11 @@
       <c r="FG8" s="4">
         <v>-7.0372259051504251</v>
       </c>
+      <c r="FH8" s="4">
+        <v>-10.97683786505538</v>
+      </c>
     </row>
-    <row r="9" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
@@ -5090,8 +5114,11 @@
       <c r="FG9" s="8">
         <v>-2.7295285359801489</v>
       </c>
+      <c r="FH9" s="8">
+        <v>-5.231984205330698</v>
+      </c>
     </row>
-    <row r="10" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -5581,8 +5608,11 @@
       <c r="FG10" s="4">
         <v>3.8850038850038855</v>
       </c>
+      <c r="FH10" s="4">
+        <v>4.5878693623639233</v>
+      </c>
     </row>
-    <row r="11" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -6072,8 +6102,11 @@
       <c r="FG11" s="4">
         <v>-4.9229452054794525</v>
       </c>
+      <c r="FH11" s="4">
+        <v>-3.4001743679163079</v>
+      </c>
     </row>
-    <row r="12" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -6561,10 +6594,13 @@
         <v>3.7267080745341583</v>
       </c>
       <c r="FG12" s="4">
-        <v>4.0067720090293584</v>
+        <v>4.0632054176072332</v>
+      </c>
+      <c r="FH12" s="4">
+        <v>4.3968432919954807</v>
       </c>
     </row>
-    <row r="13" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -7054,8 +7090,11 @@
       <c r="FG13" s="4">
         <v>4.3021510755377665</v>
       </c>
+      <c r="FH13" s="4">
+        <v>4.3956043956044013</v>
+      </c>
     </row>
-    <row r="14" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
@@ -7545,8 +7584,11 @@
       <c r="FG14" s="9">
         <v>2.8841111693759833</v>
       </c>
+      <c r="FH14" s="9">
+        <v>2.1365294424179231</v>
+      </c>
     </row>
-    <row r="15" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
@@ -8036,8 +8078,11 @@
       <c r="FG15" s="8">
         <v>2.4793388429752179</v>
       </c>
+      <c r="FH15" s="8">
+        <v>2.0813165537270142</v>
+      </c>
     </row>
-    <row r="16" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -8527,8 +8572,11 @@
       <c r="FG16" s="4">
         <v>2.7097446586763878</v>
       </c>
+      <c r="FH16" s="4">
+        <v>2.7041081643265672</v>
+      </c>
     </row>
-    <row r="17" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -9016,10 +9064,13 @@
         <v>2.0218579234972616</v>
       </c>
       <c r="FG17" s="4">
-        <v>2.0185488270594591</v>
+        <v>1.9639934533551524</v>
+      </c>
+      <c r="FH17" s="4">
+        <v>2.0708446866485075</v>
       </c>
     </row>
-    <row r="18" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>0</v>
       </c>
@@ -9509,8 +9560,11 @@
       <c r="FG18" s="8">
         <v>2.6232948583420774</v>
       </c>
+      <c r="FH18" s="8">
+        <v>2.6701570680628244</v>
+      </c>
     </row>
-    <row r="19" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -10000,8 +10054,11 @@
       <c r="FG19" s="8">
         <v>3.0303030303030338</v>
       </c>
+      <c r="FH19" s="8">
+        <v>3.0016675931072849</v>
+      </c>
     </row>
-    <row r="20" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>0</v>
       </c>
@@ -10489,10 +10546,13 @@
         <v>-1.3281682346430421</v>
       </c>
       <c r="FG20" s="9">
-        <v>1.4789533560864587</v>
+        <v>1.422070534698521</v>
+      </c>
+      <c r="FH20" s="9">
+        <v>2.9243119266055011</v>
       </c>
     </row>
-    <row r="21" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -10982,8 +11042,11 @@
       <c r="FG21" s="4">
         <v>2.6830631637786375</v>
       </c>
+      <c r="FH21" s="4">
+        <v>2.508361204013378</v>
+      </c>
     </row>
-    <row r="22" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -11473,8 +11536,11 @@
       <c r="FG22" s="4">
         <v>4.264170566822667</v>
       </c>
+      <c r="FH22" s="4">
+        <v>4.2509072058061115</v>
+      </c>
     </row>
-    <row r="23" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -11962,10 +12028,13 @@
         <v>2.9341317365269495</v>
       </c>
       <c r="FG23" s="4">
-        <v>3.2993401319736058</v>
+        <v>3.3593281343731394</v>
+      </c>
+      <c r="FH23" s="4">
+        <v>3.7282020444978885</v>
       </c>
     </row>
-    <row r="24" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -12453,10 +12522,13 @@
         <v>2.6918671248568256</v>
       </c>
       <c r="FG24" s="4">
-        <v>2.3999999999999932</v>
+        <v>2.4571428571428635</v>
+      </c>
+      <c r="FH24" s="4">
+        <v>2.5114155251141588</v>
       </c>
     </row>
-    <row r="25" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -12946,8 +13018,11 @@
       <c r="FG25" s="4">
         <v>3.9847161572052467</v>
       </c>
+      <c r="FH25" s="4">
+        <v>4.1349292709466781</v>
+      </c>
     </row>
-    <row r="26" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -13437,8 +13512,11 @@
       <c r="FG26" s="4">
         <v>13.496612819176656</v>
       </c>
+      <c r="FH26" s="4">
+        <v>12.898330804248861</v>
+      </c>
     </row>
-    <row r="27" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -13928,8 +14006,11 @@
       <c r="FG27" s="8">
         <v>4.9944506104328523</v>
       </c>
+      <c r="FH27" s="8">
+        <v>5.022075055187651</v>
+      </c>
     </row>
-    <row r="28" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>0</v>
       </c>
@@ -14419,8 +14500,11 @@
       <c r="FG28" s="9">
         <v>3.3369214208826632</v>
       </c>
+      <c r="FH28" s="9">
+        <v>3.1601499732190717</v>
+      </c>
     </row>
-    <row r="29" spans="1:163" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>48</v>
       </c>
@@ -14908,7 +14992,10 @@
         <v>4.0808165021712144</v>
       </c>
       <c r="FG29" s="15">
-        <v>4.0545058599220907</v>
+        <v>4.0624298397618235</v>
+      </c>
+      <c r="FH29" s="15">
+        <v>4.2308193214599834</v>
       </c>
     </row>
   </sheetData>

--- a/inflation_2012-24.xlsx
+++ b/inflation_2012-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RBI Official\DCA\Dashboard\Inflation-monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496C877A-B260-4BEA-AA8F-F38E622ECE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D07FE5-D88E-435B-87E8-DEA798876D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="70" windowWidth="19180" windowHeight="11260" xr2:uid="{3EA9A55A-B48B-4035-99BE-2980B3C8C172}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3EA9A55A-B48B-4035-99BE-2980B3C8C172}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -658,13 +658,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79DBFB1-5D6A-4B75-89EE-EC9E4D2C9668}">
-  <dimension ref="A1:FH29"/>
+  <dimension ref="A1:FI29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="EL2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="ES2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="FH2" sqref="FH2:FH29"/>
+      <selection pane="bottomRight" activeCell="FM12" sqref="FM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -672,7 +672,7 @@
     <col min="1" max="1" width="6.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:164" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:165" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1165,8 +1165,11 @@
       <c r="FH1" s="16">
         <v>45748</v>
       </c>
+      <c r="FI1" s="16">
+        <v>45778</v>
+      </c>
     </row>
-    <row r="2" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1659,8 +1662,11 @@
       <c r="FH2" s="4">
         <v>5.3495762711864376</v>
       </c>
+      <c r="FI2" s="4">
+        <v>4.7669491525423728</v>
+      </c>
     </row>
-    <row r="3" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2153,8 +2159,11 @@
       <c r="FH3" s="4">
         <v>-0.35320088300221253</v>
       </c>
+      <c r="FI3" s="4">
+        <v>-0.39147455415398241</v>
+      </c>
     </row>
-    <row r="4" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2647,8 +2656,11 @@
       <c r="FH4" s="4">
         <v>0.82553659878921293</v>
       </c>
+      <c r="FI4" s="4">
+        <v>0.64343163538873382</v>
+      </c>
     </row>
-    <row r="5" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3141,8 +3153,11 @@
       <c r="FH5" s="4">
         <v>2.7218290691344587</v>
       </c>
+      <c r="FI5" s="4">
+        <v>3.1487513572204189</v>
+      </c>
     </row>
-    <row r="6" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -3635,8 +3650,11 @@
       <c r="FH6" s="8">
         <v>17.424242424242419</v>
       </c>
+      <c r="FI6" s="8">
+        <v>17.906683480453978</v>
+      </c>
     </row>
-    <row r="7" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -4127,10 +4145,13 @@
         <v>16.265750286368846</v>
       </c>
       <c r="FH7" s="4">
-        <v>13.800539083557947</v>
+        <v>13.908355795148253</v>
+      </c>
+      <c r="FI7" s="4">
+        <v>12.738160043549268</v>
       </c>
     </row>
-    <row r="8" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -4623,8 +4644,11 @@
       <c r="FH8" s="4">
         <v>-10.97683786505538</v>
       </c>
+      <c r="FI8" s="4">
+        <v>-13.700633837152607</v>
+      </c>
     </row>
-    <row r="9" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
@@ -5117,8 +5141,11 @@
       <c r="FH9" s="8">
         <v>-5.231984205330698</v>
       </c>
+      <c r="FI9" s="8">
+        <v>-8.2158483228001842</v>
+      </c>
     </row>
-    <row r="10" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -5611,8 +5638,11 @@
       <c r="FH10" s="4">
         <v>4.5878693623639233</v>
       </c>
+      <c r="FI10" s="4">
+        <v>4.0863531225906025</v>
+      </c>
     </row>
-    <row r="11" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -6103,10 +6133,13 @@
         <v>-4.9229452054794525</v>
       </c>
       <c r="FH11" s="4">
-        <v>-3.4001743679163079</v>
+        <v>-3.443766346992156</v>
+      </c>
+      <c r="FI11" s="4">
+        <v>-2.8156621205455368</v>
       </c>
     </row>
-    <row r="12" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -6599,8 +6632,11 @@
       <c r="FH12" s="4">
         <v>4.3968432919954807</v>
       </c>
+      <c r="FI12" s="4">
+        <v>4.5608108108108079</v>
+      </c>
     </row>
-    <row r="13" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -7091,10 +7127,13 @@
         <v>4.3021510755377665</v>
       </c>
       <c r="FH13" s="4">
-        <v>4.3956043956044013</v>
+        <v>4.445554445554448</v>
+      </c>
+      <c r="FI13" s="4">
+        <v>4.384653712007978</v>
       </c>
     </row>
-    <row r="14" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
@@ -7587,8 +7626,11 @@
       <c r="FH14" s="9">
         <v>2.1365294424179231</v>
       </c>
+      <c r="FI14" s="9">
+        <v>1.5010351966873736</v>
+      </c>
     </row>
-    <row r="15" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
@@ -8081,8 +8123,11 @@
       <c r="FH15" s="8">
         <v>2.0813165537270142</v>
       </c>
+      <c r="FI15" s="8">
+        <v>2.4142926122646067</v>
+      </c>
     </row>
-    <row r="16" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -8575,8 +8620,11 @@
       <c r="FH16" s="4">
         <v>2.7041081643265672</v>
       </c>
+      <c r="FI16" s="4">
+        <v>2.8037383177570123</v>
+      </c>
     </row>
-    <row r="17" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -9069,8 +9117,11 @@
       <c r="FH17" s="4">
         <v>2.0708446866485075</v>
       </c>
+      <c r="FI17" s="4">
+        <v>2.1786492374727668</v>
+      </c>
     </row>
-    <row r="18" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>0</v>
       </c>
@@ -9563,8 +9614,11 @@
       <c r="FH18" s="8">
         <v>2.6701570680628244</v>
       </c>
+      <c r="FI18" s="8">
+        <v>2.6659696811291136</v>
+      </c>
     </row>
-    <row r="19" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -10055,10 +10109,13 @@
         <v>3.0303030303030338</v>
       </c>
       <c r="FH19" s="8">
-        <v>3.0016675931072849</v>
+        <v>3.0572540300166757</v>
+      </c>
+      <c r="FI19" s="8">
+        <v>3.1649083842309924</v>
       </c>
     </row>
-    <row r="20" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>0</v>
       </c>
@@ -10551,8 +10608,11 @@
       <c r="FH20" s="9">
         <v>2.9243119266055011</v>
       </c>
+      <c r="FI20" s="9">
+        <v>2.7825099375354942</v>
+      </c>
     </row>
-    <row r="21" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -11045,8 +11105,11 @@
       <c r="FH21" s="4">
         <v>2.508361204013378</v>
       </c>
+      <c r="FI21" s="4">
+        <v>2.0044543429844066</v>
+      </c>
     </row>
-    <row r="22" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -11539,8 +11602,11 @@
       <c r="FH22" s="4">
         <v>4.2509072058061115</v>
       </c>
+      <c r="FI22" s="4">
+        <v>4.3410852713178318</v>
+      </c>
     </row>
-    <row r="23" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -12031,10 +12097,13 @@
         <v>3.3593281343731394</v>
       </c>
       <c r="FH23" s="4">
-        <v>3.7282020444978885</v>
+        <v>3.6680697534576026</v>
+      </c>
+      <c r="FI23" s="4">
+        <v>3.8461538461538494</v>
       </c>
     </row>
-    <row r="24" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -12527,8 +12596,11 @@
       <c r="FH24" s="4">
         <v>2.5114155251141588</v>
       </c>
+      <c r="FI24" s="4">
+        <v>2.4487471526195965</v>
+      </c>
     </row>
-    <row r="25" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -13021,8 +13093,11 @@
       <c r="FH25" s="4">
         <v>4.1349292709466781</v>
       </c>
+      <c r="FI25" s="4">
+        <v>4.1237113402061816</v>
+      </c>
     </row>
-    <row r="26" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -13513,10 +13588,13 @@
         <v>13.496612819176656</v>
       </c>
       <c r="FH26" s="4">
-        <v>12.898330804248861</v>
+        <v>12.9489124936773</v>
+      </c>
+      <c r="FI26" s="4">
+        <v>13.49047141424273</v>
       </c>
     </row>
-    <row r="27" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -14009,8 +14087,11 @@
       <c r="FH27" s="8">
         <v>5.022075055187651</v>
       </c>
+      <c r="FI27" s="8">
+        <v>5.0632911392405155</v>
+      </c>
     </row>
-    <row r="28" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>0</v>
       </c>
@@ -14503,8 +14584,11 @@
       <c r="FH28" s="9">
         <v>3.1601499732190717</v>
       </c>
+      <c r="FI28" s="9">
+        <v>2.8236547682472093</v>
+      </c>
     </row>
-    <row r="29" spans="1:164" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>48</v>
       </c>
@@ -14996,6 +15080,9 @@
       </c>
       <c r="FH29" s="15">
         <v>4.2308193214599834</v>
+      </c>
+      <c r="FI29" s="15">
+        <v>4.1754907686376965</v>
       </c>
     </row>
   </sheetData>

--- a/inflation_2012-24.xlsx
+++ b/inflation_2012-24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RBI Official\DCA\Dashboard\Inflation-monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D07FE5-D88E-435B-87E8-DEA798876D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8CCD09-5C40-43CE-873C-3427AC17B372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3EA9A55A-B48B-4035-99BE-2980B3C8C172}"/>
   </bookViews>
@@ -658,13 +658,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79DBFB1-5D6A-4B75-89EE-EC9E4D2C9668}">
-  <dimension ref="A1:FI29"/>
+  <dimension ref="A1:FJ29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="ES2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="ER2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="FM12" sqref="FM12"/>
+      <selection pane="bottomRight" activeCell="FJ2" sqref="FJ2:FJ29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -672,7 +672,7 @@
     <col min="1" max="1" width="6.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:165" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1168,8 +1168,11 @@
       <c r="FI1" s="16">
         <v>45778</v>
       </c>
+      <c r="FJ1" s="16">
+        <v>45809</v>
+      </c>
     </row>
-    <row r="2" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1665,8 +1668,11 @@
       <c r="FI2" s="4">
         <v>4.7669491525423728</v>
       </c>
+      <c r="FJ2" s="4">
+        <v>3.7348763808521803</v>
+      </c>
     </row>
-    <row r="3" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2160,10 +2166,13 @@
         <v>-0.35320088300221253</v>
       </c>
       <c r="FI3" s="4">
-        <v>-0.39147455415398241</v>
+        <v>-0.43497172683775559</v>
+      </c>
+      <c r="FJ3" s="4">
+        <v>-1.6197783461210498</v>
       </c>
     </row>
-    <row r="4" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2659,8 +2668,11 @@
       <c r="FI4" s="4">
         <v>0.64343163538873382</v>
       </c>
+      <c r="FJ4" s="4">
+        <v>2.5748817656331986</v>
+      </c>
     </row>
-    <row r="5" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3156,8 +3168,11 @@
       <c r="FI5" s="4">
         <v>3.1487513572204189</v>
       </c>
+      <c r="FJ5" s="4">
+        <v>2.8047464940668765</v>
+      </c>
     </row>
-    <row r="6" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -3653,8 +3668,11 @@
       <c r="FI6" s="8">
         <v>17.906683480453978</v>
       </c>
+      <c r="FJ6" s="8">
+        <v>17.750000000000004</v>
+      </c>
     </row>
-    <row r="7" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -4150,8 +4168,11 @@
       <c r="FI7" s="4">
         <v>12.738160043549268</v>
       </c>
+      <c r="FJ7" s="4">
+        <v>12.588171459576769</v>
+      </c>
     </row>
-    <row r="8" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -4647,8 +4668,11 @@
       <c r="FI8" s="4">
         <v>-13.700633837152607</v>
       </c>
+      <c r="FJ8" s="4">
+        <v>-19.000853970964986</v>
+      </c>
     </row>
-    <row r="9" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
@@ -5144,8 +5168,11 @@
       <c r="FI9" s="8">
         <v>-8.2158483228001842</v>
       </c>
+      <c r="FJ9" s="8">
+        <v>-11.759127548601239</v>
+      </c>
     </row>
-    <row r="10" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -5639,10 +5666,13 @@
         <v>4.5878693623639233</v>
       </c>
       <c r="FI10" s="4">
-        <v>4.0863531225906025</v>
+        <v>4.1634541249036285</v>
+      </c>
+      <c r="FJ10" s="4">
+        <v>3.5195103289977223</v>
       </c>
     </row>
-    <row r="11" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -6136,10 +6166,13 @@
         <v>-3.443766346992156</v>
       </c>
       <c r="FI11" s="4">
-        <v>-2.8156621205455368</v>
+        <v>-2.7716673999120154</v>
+      </c>
+      <c r="FJ11" s="4">
+        <v>-3.0303030303030205</v>
       </c>
     </row>
-    <row r="12" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -6635,8 +6668,11 @@
       <c r="FI12" s="4">
         <v>4.5608108108108079</v>
       </c>
+      <c r="FJ12" s="4">
+        <v>4.3234138124649171</v>
+      </c>
     </row>
-    <row r="13" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -7132,8 +7168,11 @@
       <c r="FI13" s="4">
         <v>4.384653712007978</v>
       </c>
+      <c r="FJ13" s="4">
+        <v>4.3176178660049569</v>
+      </c>
     </row>
-    <row r="14" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
@@ -7629,8 +7668,11 @@
       <c r="FI14" s="9">
         <v>1.5010351966873736</v>
       </c>
+      <c r="FJ14" s="9">
+        <v>-0.2016129032258093</v>
+      </c>
     </row>
-    <row r="15" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
@@ -8126,8 +8168,11 @@
       <c r="FI15" s="8">
         <v>2.4142926122646067</v>
       </c>
+      <c r="FJ15" s="8">
+        <v>2.407318247472316</v>
+      </c>
     </row>
-    <row r="16" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -8621,10 +8666,13 @@
         <v>2.7041081643265672</v>
       </c>
       <c r="FI16" s="4">
-        <v>2.8037383177570123</v>
+        <v>2.7518172377985524</v>
+      </c>
+      <c r="FJ16" s="4">
+        <v>2.639751552795043</v>
       </c>
     </row>
-    <row r="17" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -9120,8 +9168,11 @@
       <c r="FI17" s="4">
         <v>2.1786492374727668</v>
       </c>
+      <c r="FJ17" s="4">
+        <v>2.2294725394235964</v>
+      </c>
     </row>
-    <row r="18" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>0</v>
       </c>
@@ -9617,8 +9668,11 @@
       <c r="FI18" s="8">
         <v>2.6659696811291136</v>
       </c>
+      <c r="FJ18" s="8">
+        <v>2.5534132360604511</v>
+      </c>
     </row>
-    <row r="19" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -10114,8 +10168,11 @@
       <c r="FI19" s="8">
         <v>3.1649083842309924</v>
       </c>
+      <c r="FJ19" s="8">
+        <v>3.2384142936906821</v>
+      </c>
     </row>
-    <row r="20" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>0</v>
       </c>
@@ -10609,10 +10666,13 @@
         <v>2.9243119266055011</v>
       </c>
       <c r="FI20" s="9">
-        <v>2.7825099375354942</v>
+        <v>2.8392958546280522</v>
+      </c>
+      <c r="FJ20" s="9">
+        <v>2.5524673851389674</v>
       </c>
     </row>
-    <row r="21" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -11106,10 +11166,13 @@
         <v>2.508361204013378</v>
       </c>
       <c r="FI21" s="4">
-        <v>2.0044543429844066</v>
+        <v>2.5055679287305126</v>
+      </c>
+      <c r="FJ21" s="4">
+        <v>2.5569760978321256</v>
       </c>
     </row>
-    <row r="22" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -11605,8 +11668,11 @@
       <c r="FI22" s="4">
         <v>4.3410852713178318</v>
       </c>
+      <c r="FJ22" s="4">
+        <v>4.4329896907216462</v>
+      </c>
     </row>
-    <row r="23" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -12102,8 +12168,11 @@
       <c r="FI23" s="4">
         <v>3.8461538461538494</v>
       </c>
+      <c r="FJ23" s="4">
+        <v>3.8992201559688064</v>
+      </c>
     </row>
-    <row r="24" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -12599,8 +12668,11 @@
       <c r="FI24" s="4">
         <v>2.4487471526195965</v>
       </c>
+      <c r="FJ24" s="4">
+        <v>2.5028441410693838</v>
+      </c>
     </row>
-    <row r="25" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -13096,8 +13168,11 @@
       <c r="FI25" s="4">
         <v>4.1237113402061816</v>
       </c>
+      <c r="FJ25" s="4">
+        <v>4.3665768194070056</v>
+      </c>
     </row>
-    <row r="26" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -13591,10 +13666,13 @@
         <v>12.9489124936773</v>
       </c>
       <c r="FI26" s="4">
-        <v>13.49047141424273</v>
+        <v>13.54062186559679</v>
+      </c>
+      <c r="FJ26" s="4">
+        <v>14.757378689344671</v>
       </c>
     </row>
-    <row r="27" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -14088,10 +14166,13 @@
         <v>5.022075055187651</v>
       </c>
       <c r="FI27" s="8">
-        <v>5.0632911392405155</v>
+        <v>5.1733626857457384</v>
+      </c>
+      <c r="FJ27" s="8">
+        <v>5.4884742041712409</v>
       </c>
     </row>
-    <row r="28" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>0</v>
       </c>
@@ -14587,8 +14668,11 @@
       <c r="FI28" s="9">
         <v>2.8236547682472093</v>
       </c>
+      <c r="FJ28" s="9">
+        <v>2.1030494216614093</v>
+      </c>
     </row>
-    <row r="29" spans="1:165" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>48</v>
       </c>
@@ -15082,7 +15166,10 @@
         <v>4.2308193214599834</v>
       </c>
       <c r="FI29" s="15">
-        <v>4.1754907686376965</v>
+        <v>4.1676335079544433</v>
+      </c>
+      <c r="FJ29" s="15">
+        <v>4.4468442601695903</v>
       </c>
     </row>
   </sheetData>

--- a/inflation_2012-24.xlsx
+++ b/inflation_2012-24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RBI Official\DCA\Dashboard\Inflation-monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8CCD09-5C40-43CE-873C-3427AC17B372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC922CD-DD10-4678-B269-842C7DA1D801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3EA9A55A-B48B-4035-99BE-2980B3C8C172}"/>
   </bookViews>
@@ -658,13 +658,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79DBFB1-5D6A-4B75-89EE-EC9E4D2C9668}">
-  <dimension ref="A1:FJ29"/>
+  <dimension ref="A1:FK29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="ER2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="EQ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="FJ2" sqref="FJ2:FJ29"/>
+      <selection pane="bottomRight" activeCell="FN7" sqref="FN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -672,7 +672,7 @@
     <col min="1" max="1" width="6.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:166" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1171,8 +1171,11 @@
       <c r="FJ1" s="16">
         <v>45809</v>
       </c>
+      <c r="FK1" s="16">
+        <v>45839</v>
+      </c>
     </row>
-    <row r="2" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1671,8 +1674,11 @@
       <c r="FJ2" s="4">
         <v>3.7348763808521803</v>
       </c>
+      <c r="FK2" s="4">
+        <v>3.0318870883429079</v>
+      </c>
     </row>
-    <row r="3" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2171,8 +2177,11 @@
       <c r="FJ3" s="4">
         <v>-1.6197783461210498</v>
       </c>
+      <c r="FK3" s="4">
+        <v>-0.60684872128304179</v>
+      </c>
     </row>
-    <row r="4" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2671,8 +2680,11 @@
       <c r="FJ4" s="4">
         <v>2.5748817656331986</v>
       </c>
+      <c r="FK4" s="4">
+        <v>2.2645393721049802</v>
+      </c>
     </row>
-    <row r="5" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3171,8 +3183,11 @@
       <c r="FJ5" s="4">
         <v>2.8047464940668765</v>
       </c>
+      <c r="FK5" s="4">
+        <v>2.7419354838709649</v>
+      </c>
     </row>
-    <row r="6" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -3671,8 +3686,11 @@
       <c r="FJ6" s="8">
         <v>17.750000000000004</v>
       </c>
+      <c r="FK6" s="8">
+        <v>19.242706393544385</v>
+      </c>
     </row>
-    <row r="7" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -4169,10 +4187,13 @@
         <v>12.738160043549268</v>
       </c>
       <c r="FJ7" s="4">
-        <v>12.588171459576769</v>
+        <v>12.642430819316322</v>
+      </c>
+      <c r="FK7" s="4">
+        <v>14.423592493297591</v>
       </c>
     </row>
-    <row r="8" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -4669,10 +4690,13 @@
         <v>-13.700633837152607</v>
       </c>
       <c r="FJ8" s="4">
-        <v>-19.000853970964986</v>
+        <v>-18.915456874466262</v>
+      </c>
+      <c r="FK8" s="4">
+        <v>-20.688365132809579</v>
       </c>
     </row>
-    <row r="9" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
@@ -5171,8 +5195,11 @@
       <c r="FJ9" s="8">
         <v>-11.759127548601239</v>
       </c>
+      <c r="FK9" s="8">
+        <v>-13.757604117922313</v>
+      </c>
     </row>
-    <row r="10" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -5671,8 +5698,11 @@
       <c r="FJ10" s="4">
         <v>3.5195103289977223</v>
       </c>
+      <c r="FK10" s="4">
+        <v>3.2824427480916114</v>
+      </c>
     </row>
-    <row r="11" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -6171,8 +6201,11 @@
       <c r="FJ11" s="4">
         <v>-3.0303030303030205</v>
       </c>
+      <c r="FK11" s="4">
+        <v>-3.0715225976305396</v>
+      </c>
     </row>
-    <row r="12" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -6671,8 +6704,11 @@
       <c r="FJ12" s="4">
         <v>4.3234138124649171</v>
       </c>
+      <c r="FK12" s="4">
+        <v>4.5964125560538047</v>
+      </c>
     </row>
-    <row r="13" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -7171,8 +7207,11 @@
       <c r="FJ13" s="4">
         <v>4.3176178660049569</v>
       </c>
+      <c r="FK13" s="4">
+        <v>4.3542800593765518</v>
+      </c>
     </row>
-    <row r="14" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
@@ -7669,10 +7708,13 @@
         <v>1.5010351966873736</v>
       </c>
       <c r="FJ14" s="9">
-        <v>-0.2016129032258093</v>
+        <v>-0.15120967741936056</v>
+      </c>
+      <c r="FK14" s="9">
+        <v>-0.83620265617315148</v>
       </c>
     </row>
-    <row r="15" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
@@ -8171,8 +8213,11 @@
       <c r="FJ15" s="8">
         <v>2.407318247472316</v>
       </c>
+      <c r="FK15" s="8">
+        <v>2.4495677233429505</v>
+      </c>
     </row>
-    <row r="16" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -8671,8 +8716,11 @@
       <c r="FJ16" s="4">
         <v>2.639751552795043</v>
       </c>
+      <c r="FK16" s="4">
+        <v>2.5826446280991737</v>
+      </c>
     </row>
-    <row r="17" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -9171,8 +9219,11 @@
       <c r="FJ17" s="4">
         <v>2.2294725394235964</v>
       </c>
+      <c r="FK17" s="4">
+        <v>2.1703743895822027</v>
+      </c>
     </row>
-    <row r="18" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>0</v>
       </c>
@@ -9671,8 +9722,11 @@
       <c r="FJ18" s="8">
         <v>2.5534132360604511</v>
       </c>
+      <c r="FK18" s="8">
+        <v>2.496099843993751</v>
+      </c>
     </row>
-    <row r="19" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -10169,10 +10223,13 @@
         <v>3.1649083842309924</v>
       </c>
       <c r="FJ19" s="8">
-        <v>3.2384142936906821</v>
+        <v>3.1825795644891222</v>
+      </c>
+      <c r="FK19" s="8">
+        <v>3.1666666666666607</v>
       </c>
     </row>
-    <row r="20" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>0</v>
       </c>
@@ -10671,8 +10728,11 @@
       <c r="FJ20" s="9">
         <v>2.5524673851389674</v>
       </c>
+      <c r="FK20" s="9">
+        <v>2.6704545454545392</v>
+      </c>
     </row>
-    <row r="21" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -11171,8 +11231,11 @@
       <c r="FJ21" s="4">
         <v>2.5569760978321256</v>
       </c>
+      <c r="FK21" s="4">
+        <v>2.6082130965593882</v>
+      </c>
     </row>
-    <row r="22" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -11669,10 +11732,13 @@
         <v>4.3410852713178318</v>
       </c>
       <c r="FJ22" s="4">
-        <v>4.4329896907216462</v>
+        <v>4.3814432989690717</v>
+      </c>
+      <c r="FK22" s="4">
+        <v>4.573484069886951</v>
       </c>
     </row>
-    <row r="23" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -12171,8 +12237,11 @@
       <c r="FJ23" s="4">
         <v>3.8992201559688064</v>
       </c>
+      <c r="FK23" s="4">
+        <v>2.1188934667451407</v>
+      </c>
     </row>
-    <row r="24" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -12671,8 +12740,11 @@
       <c r="FJ24" s="4">
         <v>2.5028441410693838</v>
       </c>
+      <c r="FK24" s="4">
+        <v>2.3823028927963632</v>
+      </c>
     </row>
-    <row r="25" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -13171,8 +13243,11 @@
       <c r="FJ25" s="4">
         <v>4.3665768194070056</v>
       </c>
+      <c r="FK25" s="4">
+        <v>4.0042712226374793</v>
+      </c>
     </row>
-    <row r="26" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -13669,10 +13744,13 @@
         <v>13.54062186559679</v>
       </c>
       <c r="FJ26" s="4">
-        <v>14.757378689344671</v>
+        <v>14.807403701850921</v>
+      </c>
+      <c r="FK26" s="4">
+        <v>15.119760479041908</v>
       </c>
     </row>
-    <row r="27" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -14171,8 +14249,11 @@
       <c r="FJ27" s="8">
         <v>5.4884742041712409</v>
       </c>
+      <c r="FK27" s="8">
+        <v>5.0081654872074131</v>
+      </c>
     </row>
-    <row r="28" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>0</v>
       </c>
@@ -14671,8 +14752,11 @@
       <c r="FJ28" s="9">
         <v>2.1030494216614093</v>
       </c>
+      <c r="FK28" s="9">
+        <v>1.5544041450777202</v>
+      </c>
     </row>
-    <row r="29" spans="1:166" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>48</v>
       </c>
@@ -15169,7 +15253,10 @@
         <v>4.1676335079544433</v>
       </c>
       <c r="FJ29" s="15">
-        <v>4.4468442601695903</v>
+        <v>4.3942252662043773</v>
+      </c>
+      <c r="FK29" s="15">
+        <v>3.9418786794032821</v>
       </c>
     </row>
   </sheetData>

--- a/inflation_2012-24.xlsx
+++ b/inflation_2012-24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RBI Official\DCA\Dashboard\Inflation-monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC922CD-DD10-4678-B269-842C7DA1D801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B9AB9F-5202-4D66-98D2-6C9A722246C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3EA9A55A-B48B-4035-99BE-2980B3C8C172}"/>
   </bookViews>
@@ -658,13 +658,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79DBFB1-5D6A-4B75-89EE-EC9E4D2C9668}">
-  <dimension ref="A1:FK29"/>
+  <dimension ref="A1:FL29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="EQ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="ET2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="FN7" sqref="FN7"/>
+      <selection pane="bottomRight" activeCell="FL2" sqref="FL2:FL29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -672,7 +672,7 @@
     <col min="1" max="1" width="6.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:167" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1174,8 +1174,11 @@
       <c r="FK1" s="16">
         <v>45839</v>
       </c>
+      <c r="FL1" s="16">
+        <v>45870</v>
+      </c>
     </row>
-    <row r="2" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1677,8 +1680,11 @@
       <c r="FK2" s="4">
         <v>3.0318870883429079</v>
       </c>
+      <c r="FL2" s="4">
+        <v>2.7027027027026964</v>
+      </c>
     </row>
-    <row r="3" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2180,8 +2186,11 @@
       <c r="FK3" s="4">
         <v>-0.60684872128304179</v>
       </c>
+      <c r="FL3" s="4">
+        <v>1.4778325123152631</v>
+      </c>
     </row>
-    <row r="4" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2681,10 +2690,13 @@
         <v>2.5748817656331986</v>
       </c>
       <c r="FK4" s="4">
-        <v>2.2645393721049802</v>
+        <v>2.2130725681935064</v>
+      </c>
+      <c r="FL4" s="4">
+        <v>3.1216931216931245</v>
       </c>
     </row>
-    <row r="5" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3184,10 +3196,13 @@
         <v>2.8047464940668765</v>
       </c>
       <c r="FK5" s="4">
-        <v>2.7419354838709649</v>
+        <v>2.6881720430107525</v>
+      </c>
+      <c r="FL5" s="4">
+        <v>2.6273458445040245</v>
       </c>
     </row>
-    <row r="6" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -3689,8 +3704,11 @@
       <c r="FK6" s="8">
         <v>19.242706393544385</v>
       </c>
+      <c r="FL6" s="8">
+        <v>21.238390092879264</v>
+      </c>
     </row>
-    <row r="7" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -4190,10 +4208,13 @@
         <v>12.642430819316322</v>
       </c>
       <c r="FK7" s="4">
-        <v>14.423592493297591</v>
+        <v>14.47721179624665</v>
+      </c>
+      <c r="FL7" s="4">
+        <v>11.650992685475435</v>
       </c>
     </row>
-    <row r="8" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -4693,10 +4714,13 @@
         <v>-18.915456874466262</v>
       </c>
       <c r="FK8" s="4">
-        <v>-20.688365132809579</v>
+        <v>-20.650953984287323</v>
+      </c>
+      <c r="FL8" s="4">
+        <v>-15.918680475642502</v>
       </c>
     </row>
-    <row r="9" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
@@ -5198,8 +5222,11 @@
       <c r="FK9" s="8">
         <v>-13.757604117922313</v>
       </c>
+      <c r="FL9" s="8">
+        <v>-14.53190498369818</v>
+      </c>
     </row>
-    <row r="10" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -5701,8 +5728,11 @@
       <c r="FK10" s="4">
         <v>3.2824427480916114</v>
       </c>
+      <c r="FL10" s="4">
+        <v>3.7290715372907193</v>
+      </c>
     </row>
-    <row r="11" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -6202,10 +6232,13 @@
         <v>-3.0303030303030205</v>
       </c>
       <c r="FK11" s="4">
-        <v>-3.0715225976305396</v>
+        <v>-3.1154014918824022</v>
+      </c>
+      <c r="FL11" s="4">
+        <v>-3.2441911442349869</v>
       </c>
     </row>
-    <row r="12" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -6707,8 +6740,11 @@
       <c r="FK12" s="4">
         <v>4.5964125560538047</v>
       </c>
+      <c r="FL12" s="4">
+        <v>4.2968750000000098</v>
+      </c>
     </row>
-    <row r="13" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -7208,10 +7244,13 @@
         <v>4.3176178660049569</v>
       </c>
       <c r="FK13" s="4">
-        <v>4.3542800593765518</v>
+        <v>4.4037605145967369</v>
+      </c>
+      <c r="FL13" s="4">
+        <v>4.1871921182266005</v>
       </c>
     </row>
-    <row r="14" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
@@ -7713,8 +7752,11 @@
       <c r="FK14" s="9">
         <v>-0.83620265617315148</v>
       </c>
+      <c r="FL14" s="9">
+        <v>4.9333991119892812E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
@@ -8216,8 +8258,11 @@
       <c r="FK15" s="8">
         <v>2.4495677233429505</v>
       </c>
+      <c r="FL15" s="8">
+        <v>2.4940047961630638</v>
+      </c>
     </row>
-    <row r="16" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -8719,8 +8764,11 @@
       <c r="FK16" s="4">
         <v>2.5826446280991737</v>
       </c>
+      <c r="FL16" s="4">
+        <v>2.4214322514168045</v>
+      </c>
     </row>
-    <row r="17" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -9222,8 +9270,11 @@
       <c r="FK17" s="4">
         <v>2.1703743895822027</v>
       </c>
+      <c r="FL17" s="4">
+        <v>2.0021645021644958</v>
+      </c>
     </row>
-    <row r="18" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>0</v>
       </c>
@@ -9725,8 +9776,11 @@
       <c r="FK18" s="8">
         <v>2.496099843993751</v>
       </c>
+      <c r="FL18" s="8">
+        <v>2.3340248962655603</v>
+      </c>
     </row>
-    <row r="19" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -10228,8 +10282,11 @@
       <c r="FK19" s="8">
         <v>3.1666666666666607</v>
       </c>
+      <c r="FL19" s="8">
+        <v>3.0922142462727744</v>
+      </c>
     </row>
-    <row r="20" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>0</v>
       </c>
@@ -10731,8 +10788,11 @@
       <c r="FK20" s="9">
         <v>2.6704545454545392</v>
       </c>
+      <c r="FL20" s="9">
+        <v>2.4335031126202669</v>
+      </c>
     </row>
-    <row r="21" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -11234,8 +11294,11 @@
       <c r="FK21" s="4">
         <v>2.6082130965593882</v>
       </c>
+      <c r="FL21" s="4">
+        <v>2.5428413488114949</v>
+      </c>
     </row>
-    <row r="22" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -11737,8 +11800,11 @@
       <c r="FK22" s="4">
         <v>4.573484069886951</v>
       </c>
+      <c r="FL22" s="4">
+        <v>4.4012282497441113</v>
+      </c>
     </row>
-    <row r="23" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -12240,8 +12306,11 @@
       <c r="FK23" s="4">
         <v>2.1188934667451407</v>
       </c>
+      <c r="FL23" s="4">
+        <v>1.936619718309849</v>
+      </c>
     </row>
-    <row r="24" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -12743,8 +12812,11 @@
       <c r="FK24" s="4">
         <v>2.3823028927963632</v>
       </c>
+      <c r="FL24" s="4">
+        <v>2.2033898305084776</v>
+      </c>
     </row>
-    <row r="25" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -13244,10 +13316,13 @@
         <v>4.3665768194070056</v>
       </c>
       <c r="FK25" s="4">
-        <v>4.0042712226374793</v>
+        <v>4.1110517885744731</v>
+      </c>
+      <c r="FL25" s="4">
+        <v>3.6036036036036099</v>
       </c>
     </row>
-    <row r="26" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -13749,8 +13824,11 @@
       <c r="FK26" s="4">
         <v>15.119760479041908</v>
       </c>
+      <c r="FL26" s="4">
+        <v>16.60830415207603</v>
+      </c>
     </row>
-    <row r="27" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -14252,8 +14330,11 @@
       <c r="FK27" s="8">
         <v>5.0081654872074131</v>
       </c>
+      <c r="FL27" s="8">
+        <v>5.0461204557786123</v>
+      </c>
     </row>
-    <row r="28" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>0</v>
       </c>
@@ -14753,10 +14834,13 @@
         <v>2.1030494216614093</v>
       </c>
       <c r="FK28" s="9">
-        <v>1.5544041450777202</v>
+        <v>1.6062176165803081</v>
+      </c>
+      <c r="FL28" s="9">
+        <v>2.0725388601036272</v>
       </c>
     </row>
-    <row r="29" spans="1:167" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>48</v>
       </c>
@@ -15256,7 +15340,10 @@
         <v>4.3942252662043773</v>
       </c>
       <c r="FK29" s="15">
-        <v>3.9418786794032821</v>
+        <v>4.0558670858704291</v>
+      </c>
+      <c r="FL29" s="15">
+        <v>4.1612178885913922</v>
       </c>
     </row>
   </sheetData>

--- a/inflation_2012-24.xlsx
+++ b/inflation_2012-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RBI Official\DCA\Dashboard\Inflation-monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B9AB9F-5202-4D66-98D2-6C9A722246C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6850A51E-E657-4B9E-87C2-B98BF5AF4C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3EA9A55A-B48B-4035-99BE-2980B3C8C172}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="11260" xr2:uid="{3EA9A55A-B48B-4035-99BE-2980B3C8C172}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -658,13 +658,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79DBFB1-5D6A-4B75-89EE-EC9E4D2C9668}">
-  <dimension ref="A1:FL29"/>
+  <dimension ref="A1:FO29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="ET2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="ES2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="FL2" sqref="FL2:FL29"/>
+      <selection pane="bottomRight" activeCell="FR12" sqref="FR12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -672,7 +672,7 @@
     <col min="1" max="1" width="6.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:171" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1177,8 +1177,17 @@
       <c r="FL1" s="16">
         <v>45870</v>
       </c>
+      <c r="FM1" s="16">
+        <v>45901</v>
+      </c>
+      <c r="FN1" s="16">
+        <v>45931</v>
+      </c>
+      <c r="FO1" s="16">
+        <v>45962</v>
+      </c>
     </row>
-    <row r="2" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:171" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1683,8 +1692,17 @@
       <c r="FL2" s="4">
         <v>2.7027027027026964</v>
       </c>
+      <c r="FM2" s="4">
+        <v>2.0639834881320951</v>
+      </c>
+      <c r="FN2" s="4">
+        <v>0.92024539877301192</v>
+      </c>
+      <c r="FO2" s="4">
+        <v>0.10136847440445444</v>
+      </c>
     </row>
-    <row r="3" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:171" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2187,10 +2205,19 @@
         <v>-0.60684872128304179</v>
       </c>
       <c r="FL3" s="4">
-        <v>1.4778325123152631</v>
+        <v>1.5226153157187536</v>
+      </c>
+      <c r="FM3" s="4">
+        <v>2.1486123545210307</v>
+      </c>
+      <c r="FN3" s="4">
+        <v>1.6911437472185189</v>
+      </c>
+      <c r="FO3" s="4">
+        <v>2.4999999999999973</v>
       </c>
     </row>
-    <row r="4" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:171" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2695,8 +2722,17 @@
       <c r="FL4" s="4">
         <v>3.1216931216931245</v>
       </c>
+      <c r="FM4" s="4">
+        <v>2.757544224765875</v>
+      </c>
+      <c r="FN4" s="4">
+        <v>1.3265306122448952</v>
+      </c>
+      <c r="FO4" s="4">
+        <v>3.7735849056603743</v>
+      </c>
     </row>
-    <row r="5" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:171" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3201,8 +3237,17 @@
       <c r="FL5" s="4">
         <v>2.6273458445040245</v>
       </c>
+      <c r="FM5" s="4">
+        <v>2.5133689839572133</v>
+      </c>
+      <c r="FN5" s="4">
+        <v>2.4025627335824877</v>
+      </c>
+      <c r="FO5" s="4">
+        <v>2.4546424759871903</v>
+      </c>
     </row>
-    <row r="6" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:171" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -3707,8 +3752,17 @@
       <c r="FL6" s="8">
         <v>21.238390092879264</v>
       </c>
+      <c r="FM6" s="8">
+        <v>18.340348767288031</v>
+      </c>
+      <c r="FN6" s="8">
+        <v>11.174134997163918</v>
+      </c>
+      <c r="FO6" s="8">
+        <v>7.8701155751238367</v>
+      </c>
     </row>
-    <row r="7" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:171" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -4211,10 +4265,19 @@
         <v>14.47721179624665</v>
       </c>
       <c r="FL7" s="4">
-        <v>11.650992685475435</v>
+        <v>11.70323928944619</v>
+      </c>
+      <c r="FM7" s="4">
+        <v>9.7701149425287284</v>
+      </c>
+      <c r="FN7" s="4">
+        <v>6.6941297631307934</v>
+      </c>
+      <c r="FO7" s="4">
+        <v>6.8714211348256216</v>
       </c>
     </row>
-    <row r="8" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:171" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -4719,8 +4782,17 @@
       <c r="FL8" s="4">
         <v>-15.918680475642502</v>
       </c>
+      <c r="FM8" s="4">
+        <v>-21.415339014449792</v>
+      </c>
+      <c r="FN8" s="4">
+        <v>-27.56849315068493</v>
+      </c>
+      <c r="FO8" s="4">
+        <v>-22.202295552367289</v>
+      </c>
     </row>
-    <row r="9" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:171" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
@@ -5225,8 +5297,17 @@
       <c r="FL9" s="8">
         <v>-14.53190498369818</v>
       </c>
+      <c r="FM9" s="8">
+        <v>-15.324074074074071</v>
+      </c>
+      <c r="FN9" s="8">
+        <v>-16.151361329026305</v>
+      </c>
+      <c r="FO9" s="8">
+        <v>-15.86493987049028</v>
+      </c>
     </row>
-    <row r="10" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:171" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -5731,8 +5812,17 @@
       <c r="FL10" s="4">
         <v>3.7290715372907193</v>
       </c>
+      <c r="FM10" s="4">
+        <v>3.9513677811550281</v>
+      </c>
+      <c r="FN10" s="4">
+        <v>4.0181956027293273</v>
+      </c>
+      <c r="FO10" s="4">
+        <v>4.0212443095599255</v>
+      </c>
     </row>
-    <row r="11" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:171" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -6237,8 +6327,17 @@
       <c r="FL11" s="4">
         <v>-3.2441911442349869</v>
       </c>
+      <c r="FM11" s="4">
+        <v>-3.070175438596491</v>
+      </c>
+      <c r="FN11" s="4">
+        <v>-3.288031565103025</v>
+      </c>
+      <c r="FO11" s="4">
+        <v>-2.8934677772906596</v>
+      </c>
     </row>
-    <row r="12" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:171" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -6743,8 +6842,17 @@
       <c r="FL12" s="4">
         <v>4.2968750000000098</v>
       </c>
+      <c r="FM12" s="4">
+        <v>4.0022234574763695</v>
+      </c>
+      <c r="FN12" s="4">
+        <v>3.488372093023262</v>
+      </c>
+      <c r="FO12" s="4">
+        <v>2.9233314947600566</v>
+      </c>
     </row>
-    <row r="13" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:171" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -7249,8 +7357,17 @@
       <c r="FL13" s="4">
         <v>4.1871921182266005</v>
       </c>
+      <c r="FM13" s="4">
+        <v>4.1728031418753071</v>
+      </c>
+      <c r="FN13" s="4">
+        <v>3.9608801955990187</v>
+      </c>
+      <c r="FO13" s="4">
+        <v>3.6531904529956161</v>
+      </c>
     </row>
-    <row r="14" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:171" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
@@ -7755,8 +7872,17 @@
       <c r="FL14" s="9">
         <v>4.9333991119892812E-2</v>
       </c>
+      <c r="FM14" s="9">
+        <v>-1.3671875000000056</v>
+      </c>
+      <c r="FN14" s="9">
+        <v>-3.7249283667621826</v>
+      </c>
+      <c r="FO14" s="9">
+        <v>-2.7831094049904084</v>
+      </c>
     </row>
-    <row r="15" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:171" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
@@ -8261,8 +8387,17 @@
       <c r="FL15" s="8">
         <v>2.4940047961630638</v>
       </c>
+      <c r="FM15" s="8">
+        <v>2.7325023969319355</v>
+      </c>
+      <c r="FN15" s="8">
+        <v>2.918660287081337</v>
+      </c>
+      <c r="FO15" s="8">
+        <v>2.9636711281070829</v>
+      </c>
     </row>
-    <row r="16" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:171" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -8767,8 +8902,17 @@
       <c r="FL16" s="4">
         <v>2.4214322514168045</v>
       </c>
+      <c r="FM16" s="4">
+        <v>2.3638232271325768</v>
+      </c>
+      <c r="FN16" s="4">
+        <v>1.8945212493599533</v>
+      </c>
+      <c r="FO16" s="4">
+        <v>1.7875383043922368</v>
+      </c>
     </row>
-    <row r="17" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:171" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -9271,10 +9415,19 @@
         <v>2.1703743895822027</v>
       </c>
       <c r="FL17" s="4">
-        <v>2.0021645021644958</v>
+        <v>2.0562770562770472</v>
+      </c>
+      <c r="FM17" s="4">
+        <v>1.7837837837837898</v>
+      </c>
+      <c r="FN17" s="4">
+        <v>0.48517520215633725</v>
+      </c>
+      <c r="FO17" s="4">
+        <v>-0.10752688172042399</v>
       </c>
     </row>
-    <row r="18" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:171" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>0</v>
       </c>
@@ -9779,8 +9932,17 @@
       <c r="FL18" s="8">
         <v>2.3340248962655603</v>
       </c>
+      <c r="FM18" s="8">
+        <v>2.2774327122153237</v>
+      </c>
+      <c r="FN18" s="8">
+        <v>1.7019082001031371</v>
+      </c>
+      <c r="FO18" s="8">
+        <v>1.4917695473251058</v>
+      </c>
     </row>
-    <row r="19" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:171" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -10285,8 +10447,17 @@
       <c r="FL19" s="8">
         <v>3.0922142462727744</v>
       </c>
+      <c r="FM19" s="8">
+        <v>2.9834254143646439</v>
+      </c>
+      <c r="FN19" s="8">
+        <v>2.9556650246305454</v>
+      </c>
+      <c r="FO19" s="8">
+        <v>2.9508196721311508</v>
+      </c>
     </row>
-    <row r="20" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:171" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>0</v>
       </c>
@@ -10789,10 +10960,19 @@
         <v>2.6704545454545392</v>
       </c>
       <c r="FL20" s="9">
-        <v>2.4335031126202669</v>
+        <v>2.3203169213356101</v>
+      </c>
+      <c r="FM20" s="9">
+        <v>1.978518937252685</v>
+      </c>
+      <c r="FN20" s="9">
+        <v>1.9796380090497736</v>
+      </c>
+      <c r="FO20" s="9">
+        <v>2.3216308040770071</v>
       </c>
     </row>
-    <row r="21" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:171" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -11297,8 +11477,17 @@
       <c r="FL21" s="4">
         <v>2.5428413488114949</v>
       </c>
+      <c r="FM21" s="4">
+        <v>2.3717595146166479</v>
+      </c>
+      <c r="FN21" s="4">
+        <v>2.2552255225522519</v>
+      </c>
+      <c r="FO21" s="4">
+        <v>2.0285087719298183</v>
+      </c>
     </row>
-    <row r="22" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:171" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -11803,8 +11992,17 @@
       <c r="FL22" s="4">
         <v>4.4012282497441113</v>
       </c>
+      <c r="FM22" s="4">
+        <v>4.3877551020408134</v>
+      </c>
+      <c r="FN22" s="4">
+        <v>3.8129130655821046</v>
+      </c>
+      <c r="FO22" s="4">
+        <v>3.5985808413583342</v>
+      </c>
     </row>
-    <row r="23" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:171" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -12309,8 +12507,17 @@
       <c r="FL23" s="4">
         <v>1.936619718309849</v>
       </c>
+      <c r="FM23" s="4">
+        <v>1.818181818181815</v>
+      </c>
+      <c r="FN23" s="4">
+        <v>0.93731693028706664</v>
+      </c>
+      <c r="FO23" s="4">
+        <v>0.8777062609713282</v>
+      </c>
     </row>
-    <row r="24" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:171" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -12815,8 +13022,17 @@
       <c r="FL24" s="4">
         <v>2.2033898305084776</v>
       </c>
+      <c r="FM24" s="4">
+        <v>1.9729425028184893</v>
+      </c>
+      <c r="FN24" s="4">
+        <v>1.4614952220348478</v>
+      </c>
+      <c r="FO24" s="4">
+        <v>1.2892376681614253</v>
+      </c>
     </row>
-    <row r="25" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:171" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -13321,8 +13537,17 @@
       <c r="FL25" s="4">
         <v>3.6036036036036099</v>
       </c>
+      <c r="FM25" s="4">
+        <v>3.4373347435219461</v>
+      </c>
+      <c r="FN25" s="4">
+        <v>3.5393555203380811</v>
+      </c>
+      <c r="FO25" s="4">
+        <v>3.3773087071240133</v>
+      </c>
     </row>
-    <row r="26" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:171" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -13825,10 +14050,19 @@
         <v>15.119760479041908</v>
       </c>
       <c r="FL26" s="4">
-        <v>16.60830415207603</v>
+        <v>16.658329164582284</v>
+      </c>
+      <c r="FM26" s="4">
+        <v>19.386745796241357</v>
+      </c>
+      <c r="FN26" s="4">
+        <v>23.883495145631063</v>
+      </c>
+      <c r="FO26" s="4">
+        <v>24.044508950169323</v>
       </c>
     </row>
-    <row r="27" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:171" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -14333,8 +14567,17 @@
       <c r="FL27" s="8">
         <v>5.0461204557786123</v>
       </c>
+      <c r="FM27" s="8">
+        <v>5.3513513513513544</v>
+      </c>
+      <c r="FN27" s="8">
+        <v>5.7050592034445602</v>
+      </c>
+      <c r="FO27" s="8">
+        <v>5.6390977443609023</v>
+      </c>
     </row>
-    <row r="28" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:171" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>0</v>
       </c>
@@ -14839,8 +15082,17 @@
       <c r="FL28" s="9">
         <v>2.0725388601036272</v>
       </c>
+      <c r="FM28" s="9">
+        <v>1.4418125643666382</v>
+      </c>
+      <c r="FN28" s="9">
+        <v>0.25406504065040647</v>
+      </c>
+      <c r="FO28" s="9">
+        <v>0.71246819338422684</v>
+      </c>
     </row>
-    <row r="29" spans="1:168" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:171" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>48</v>
       </c>
@@ -15343,7 +15595,16 @@
         <v>4.0558670858704291</v>
       </c>
       <c r="FL29" s="15">
-        <v>4.1612178885913922</v>
+        <v>4.1767712081677484</v>
+      </c>
+      <c r="FM29" s="15">
+        <v>4.3600976017353892</v>
+      </c>
+      <c r="FN29" s="15">
+        <v>4.3277530209964148</v>
+      </c>
+      <c r="FO29" s="15">
+        <v>4.2538114395410123</v>
       </c>
     </row>
   </sheetData>
